--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>661995.301104362</v>
+        <v>658312.8988268841</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16683936.64456666</v>
+        <v>16683936.64456667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6696638.271478495</v>
+        <v>6696638.271478489</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>254.4742268619419</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>157.5890067652043</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -724,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>129.4961480002998</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.50042337073099</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>382.2240687240703</v>
+        <v>20.59556213630533</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>99.44989698355074</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>181.010314498968</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.9954815302045</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>54.78758106820585</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>301.8726441313078</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I11" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>213.9185084023712</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3790306575067</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>362.5554974188629</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>85.26434428276903</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.49003242675761</v>
+        <v>73.2696407971557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>173.695436859659</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>196.3505145038251</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I14" t="n">
-        <v>32.06596601287148</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>213.9185084023712</v>
       </c>
       <c r="U14" t="n">
-        <v>249.8901954337919</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>93.13863331519353</v>
+        <v>93.13863331519352</v>
       </c>
       <c r="T15" t="n">
         <v>154.7600185213937</v>
@@ -1767,10 +1767,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>101.0600829121094</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.49003242675762</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.47157300735812</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T16" t="n">
         <v>234.4974173178651</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>126.3755437083784</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>293.6080910769474</v>
+        <v>66.36659382295483</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>213.9185084023712</v>
@@ -1903,16 +1903,16 @@
         <v>254.3790306575067</v>
       </c>
       <c r="V17" t="n">
-        <v>23.52296640891555</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>115.7671108146144</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H19" t="n">
-        <v>142.5849849824587</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>173.695436859659</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U19" t="n">
         <v>279.9362617114834</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>159.2941701415051</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>363.7637004160637</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>192.4481649639135</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I20" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>68.84351100298413</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.5849849824587</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>86.11772457235006</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U22" t="n">
         <v>279.9362617114834</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>106.051001815578</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>213.9185084023712</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3790306575067</v>
+        <v>80.38675012562025</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6.510256647806115</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.9563089197291</v>
       </c>
       <c r="H25" t="n">
-        <v>142.5849849824587</v>
+        <v>140.7692735876736</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U25" t="n">
         <v>279.9362617114834</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>285.7808850449391</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>171.8886477376697</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>12.37193799562611</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.84351100298421</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>173.695436859659</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>38.15089774996331</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>353.6424262861255</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>12.37193799562609</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>122.7918575797738</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.5849849824587</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>234.4974173178651</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>237.6712585103838</v>
       </c>
       <c r="I32" t="n">
         <v>32.06596601287146</v>
@@ -3082,7 +3082,7 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>45.2760796642376</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>89.70991141335902</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>164.9563089197291</v>
       </c>
       <c r="H34" t="n">
-        <v>142.5849849824587</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T34" t="n">
         <v>234.4974173178651</v>
@@ -3246,10 +3246,10 @@
         <v>279.9362617114834</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>108.7505311985019</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>403.2552991963672</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>235.6767328025448</v>
       </c>
       <c r="I35" t="n">
         <v>32.06596601287146</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U35" t="n">
-        <v>43.57189642505377</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.5020686304142</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H37" t="n">
         <v>142.5849849824587</v>
       </c>
       <c r="I37" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9362617114834</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>196.4161625659098</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>120.6711605776483</v>
       </c>
       <c r="U38" t="n">
-        <v>75.6378624379244</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.5849849824587</v>
+        <v>84.63924963232408</v>
       </c>
       <c r="I40" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>234.4974173178651</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>99.70800324384366</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.8486766459877</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>172.0094556191548</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>68.84351100298413</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U43" t="n">
-        <v>111.8300981310657</v>
+        <v>279.9362617114834</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>377.2999525465208</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>81.96585531290111</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>164.9563089197291</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.3846194011202</v>
       </c>
       <c r="I46" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>173.695436859659</v>
       </c>
       <c r="T46" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9362617114834</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>219.455093526713</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1441.252713250695</v>
+        <v>166.6022603407614</v>
       </c>
       <c r="C2" t="n">
-        <v>1031.128122563965</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>1030.70459669743</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,25 +4333,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="N2" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L2" t="n">
-        <v>1250.250340018485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1250.250340018485</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1250.250340018485</v>
-      </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W2" t="n">
-        <v>1447.433488874781</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X2" t="n">
-        <v>1447.433488874781</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="Y2" t="n">
-        <v>1447.433488874781</v>
+        <v>423.6469339386825</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L3" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
         <v>1192.007362767164</v>
@@ -4445,7 +4445,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
         <v>1196.626901649</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.7731676935686</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C4" t="n">
-        <v>605.7731676935686</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>605.7731676935686</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>605.7731676935686</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1551.466584906279</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1551.466584906279</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1551.466584906279</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1551.466584906279</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="X4" t="n">
-        <v>1018.208572698848</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.4728740876129</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>901.9312340043923</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>491.8066433176624</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,16 +4573,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="M5" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="N5" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="O5" t="n">
         <v>1329.636426430007</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1846.479361096332</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1846.479361096332</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
         <v>1846.479361096332</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668882</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L6" t="n">
-        <v>234.5779431922353</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1785.106747191211</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="C7" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E7" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4253276531883</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V7" t="n">
-        <v>588.5395825927103</v>
+        <v>1025.613750745284</v>
       </c>
       <c r="W7" t="n">
-        <v>309.4699181015847</v>
+        <v>746.5440862541582</v>
       </c>
       <c r="X7" t="n">
-        <v>209.0154767040586</v>
+        <v>508.2002241138416</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1696.412113819451</v>
+        <v>919.902144725525</v>
       </c>
       <c r="C8" t="n">
-        <v>1286.287523132721</v>
+        <v>913.8179580791991</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>913.3944322126637</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>903.0946207699644</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767163</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433488</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -5001,13 +5001,13 @@
         <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.6405661547253</v>
+        <v>1052.486458077976</v>
       </c>
       <c r="C11" t="n">
-        <v>480.5159754679954</v>
+        <v>1052.486458077976</v>
       </c>
       <c r="D11" t="n">
-        <v>76.05204556105591</v>
+        <v>1052.486458077976</v>
       </c>
       <c r="E11" t="n">
-        <v>76.05204556105591</v>
+        <v>1052.486458077976</v>
       </c>
       <c r="F11" t="n">
-        <v>76.05204556105591</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="G11" t="n">
-        <v>76.05204556105591</v>
+        <v>340.2360102722438</v>
       </c>
       <c r="H11" t="n">
-        <v>76.05204556105591</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I11" t="n">
         <v>43.66218090158979</v>
@@ -5044,25 +5044,25 @@
         <v>414.2812860995966</v>
       </c>
       <c r="K11" t="n">
-        <v>920.348524041822</v>
+        <v>954.6007747567702</v>
       </c>
       <c r="L11" t="n">
-        <v>1042.305417534672</v>
+        <v>1169.036224785474</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.832082287981</v>
+        <v>1317.562889538783</v>
       </c>
       <c r="N11" t="n">
-        <v>1343.630656150273</v>
+        <v>1470.361463401075</v>
       </c>
       <c r="O11" t="n">
-        <v>1482.513235785784</v>
+        <v>1609.244043036586</v>
       </c>
       <c r="P11" t="n">
-        <v>1587.073398994776</v>
+        <v>1713.804206245577</v>
       </c>
       <c r="Q11" t="n">
-        <v>2056.378237828688</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R11" t="n">
         <v>2183.109045079489</v>
@@ -5074,19 +5074,19 @@
         <v>1863.644310794376</v>
       </c>
       <c r="U11" t="n">
-        <v>1606.695794978712</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="V11" t="n">
-        <v>1256.858240315193</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="W11" t="n">
-        <v>890.6405661547253</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="X11" t="n">
-        <v>890.6405661547253</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="Y11" t="n">
-        <v>890.6405661547253</v>
+        <v>1462.707637742466</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I12" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J12" t="n">
-        <v>305.8221130637171</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K12" t="n">
-        <v>846.1416017208907</v>
+        <v>851.0774608867678</v>
       </c>
       <c r="L12" t="n">
-        <v>949.959975993791</v>
+        <v>1391.396949543941</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.950653583671</v>
+        <v>1520.387627133822</v>
       </c>
       <c r="N12" t="n">
-        <v>1217.190831776493</v>
+        <v>1658.627805326644</v>
       </c>
       <c r="O12" t="n">
-        <v>1334.654570356463</v>
+        <v>1776.091543906614</v>
       </c>
       <c r="P12" t="n">
-        <v>1525.771399602432</v>
+        <v>1862.536658074634</v>
       </c>
       <c r="Q12" t="n">
         <v>1969.310551587083</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>227.2524604061622</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="C13" t="n">
-        <v>141.1268601205369</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="D13" t="n">
-        <v>141.1268601205369</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="E13" t="n">
-        <v>141.1268601205369</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="F13" t="n">
-        <v>141.1268601205369</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="G13" t="n">
-        <v>141.1268601205369</v>
+        <v>117.6719190805349</v>
       </c>
       <c r="H13" t="n">
-        <v>141.1268601205369</v>
+        <v>117.6719190805349</v>
       </c>
       <c r="I13" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J13" t="n">
-        <v>101.2508563378974</v>
+        <v>101.2508563378979</v>
       </c>
       <c r="K13" t="n">
-        <v>327.2971136830523</v>
+        <v>327.2971136830528</v>
       </c>
       <c r="L13" t="n">
-        <v>678.6818293819849</v>
+        <v>678.6818293819854</v>
       </c>
       <c r="M13" t="n">
-        <v>1064.406748771457</v>
+        <v>1064.406748771458</v>
       </c>
       <c r="N13" t="n">
         <v>1439.41277039439</v>
@@ -5223,28 +5223,28 @@
         <v>2183.109045079489</v>
       </c>
       <c r="R13" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S13" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T13" t="n">
-        <v>1713.751037822032</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U13" t="n">
-        <v>1430.987137103362</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="V13" t="n">
-        <v>1157.101392042884</v>
+        <v>1214.143384979609</v>
       </c>
       <c r="W13" t="n">
-        <v>878.0317275517584</v>
+        <v>935.0737204884838</v>
       </c>
       <c r="X13" t="n">
-        <v>639.6878654114419</v>
+        <v>696.7298583481672</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.9521668002066</v>
+        <v>471.9941597369319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.05204556105593</v>
+        <v>959.600275352723</v>
       </c>
       <c r="C14" t="n">
-        <v>76.05204556105593</v>
+        <v>959.600275352723</v>
       </c>
       <c r="D14" t="n">
-        <v>76.05204556105593</v>
+        <v>959.600275352723</v>
       </c>
       <c r="E14" t="n">
-        <v>76.05204556105593</v>
+        <v>959.600275352723</v>
       </c>
       <c r="F14" t="n">
-        <v>76.05204556105593</v>
+        <v>538.5698633064105</v>
       </c>
       <c r="G14" t="n">
-        <v>76.05204556105593</v>
+        <v>340.2360102722438</v>
       </c>
       <c r="H14" t="n">
-        <v>76.05204556105593</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I14" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J14" t="n">
-        <v>371.9609133707786</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K14" t="n">
-        <v>912.2804020279523</v>
+        <v>920.3485240418224</v>
       </c>
       <c r="L14" t="n">
-        <v>1452.599890685126</v>
+        <v>1042.305417534673</v>
       </c>
       <c r="M14" t="n">
-        <v>1601.126555438435</v>
+        <v>1190.832082287982</v>
       </c>
       <c r="N14" t="n">
-        <v>1753.925129300727</v>
+        <v>1343.630656150274</v>
       </c>
       <c r="O14" t="n">
-        <v>1892.807708936238</v>
+        <v>1482.513235785785</v>
       </c>
       <c r="P14" t="n">
-        <v>1997.36787214523</v>
+        <v>1587.073398994776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2056.378237828689</v>
+        <v>2056.378237828688</v>
       </c>
       <c r="R14" t="n">
         <v>2183.10904507949</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.723612210913</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="T14" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="U14" t="n">
-        <v>1611.229971972364</v>
+        <v>1710.08122784729</v>
       </c>
       <c r="V14" t="n">
-        <v>1261.392417308845</v>
+        <v>1360.24367318377</v>
       </c>
       <c r="W14" t="n">
-        <v>877.6321164440133</v>
+        <v>1360.24367318377</v>
       </c>
       <c r="X14" t="n">
-        <v>476.9887186129658</v>
+        <v>959.600275352723</v>
       </c>
       <c r="Y14" t="n">
-        <v>76.05204556105593</v>
+        <v>959.600275352723</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J15" t="n">
-        <v>62.15370908908378</v>
+        <v>305.8221130637171</v>
       </c>
       <c r="K15" t="n">
-        <v>125.4113800623814</v>
+        <v>480.0533492362557</v>
       </c>
       <c r="L15" t="n">
-        <v>229.2297543352817</v>
+        <v>583.871723509156</v>
       </c>
       <c r="M15" t="n">
-        <v>769.5492429924553</v>
+        <v>712.8624010990363</v>
       </c>
       <c r="N15" t="n">
-        <v>1309.868731649629</v>
+        <v>851.1025792918581</v>
       </c>
       <c r="O15" t="n">
-        <v>1850.188220306803</v>
+        <v>1391.422067949032</v>
       </c>
       <c r="P15" t="n">
-        <v>2006.873574368652</v>
+        <v>1931.741556606205</v>
       </c>
       <c r="Q15" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R15" t="n">
         <v>2044.442569349528</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>402.7023966280404</v>
+        <v>381.3780876022259</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6215047976269</v>
+        <v>210.2847151639424</v>
       </c>
       <c r="D16" t="n">
-        <v>141.1268601205369</v>
+        <v>210.2847151639424</v>
       </c>
       <c r="E16" t="n">
-        <v>141.1268601205369</v>
+        <v>210.2847151639424</v>
       </c>
       <c r="F16" t="n">
-        <v>141.1268601205369</v>
+        <v>210.2847151639424</v>
       </c>
       <c r="G16" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="H16" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I16" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2508563378977</v>
+        <v>101.2508563378974</v>
       </c>
       <c r="K16" t="n">
-        <v>327.2971136830527</v>
+        <v>327.2971136830524</v>
       </c>
       <c r="L16" t="n">
-        <v>678.6818293819854</v>
+        <v>678.6818293819849</v>
       </c>
       <c r="M16" t="n">
         <v>1064.406748771458</v>
@@ -5454,34 +5454,34 @@
         <v>1785.952067557884</v>
       </c>
       <c r="P16" t="n">
-        <v>2066.052800429037</v>
+        <v>2066.052800429038</v>
       </c>
       <c r="Q16" t="n">
         <v>2183.10904507949</v>
       </c>
       <c r="R16" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="S16" t="n">
-        <v>2126.067052142764</v>
+        <v>2007.659108857612</v>
       </c>
       <c r="T16" t="n">
-        <v>1889.20097404391</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U16" t="n">
-        <v>1606.43707332524</v>
+        <v>1488.029130040088</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.551328264762</v>
+        <v>1214.14338497961</v>
       </c>
       <c r="W16" t="n">
-        <v>1053.481663773637</v>
+        <v>935.0737204884842</v>
       </c>
       <c r="X16" t="n">
-        <v>815.1378016333201</v>
+        <v>696.7298583481677</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.4021030220848</v>
+        <v>569.0777939962703</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582.935222848495</v>
+        <v>515.1630742660594</v>
       </c>
       <c r="C17" t="n">
-        <v>1582.935222848495</v>
+        <v>515.1630742660594</v>
       </c>
       <c r="D17" t="n">
-        <v>1582.935222848495</v>
+        <v>110.6991443591199</v>
       </c>
       <c r="E17" t="n">
-        <v>1168.595007365392</v>
+        <v>110.6991443591199</v>
       </c>
       <c r="F17" t="n">
-        <v>747.5645953190793</v>
+        <v>110.6991443591199</v>
       </c>
       <c r="G17" t="n">
-        <v>340.2360102722438</v>
+        <v>110.6991443591199</v>
       </c>
       <c r="H17" t="n">
-        <v>43.66218090158979</v>
+        <v>43.6621809015898</v>
       </c>
       <c r="I17" t="n">
-        <v>43.66218090158979</v>
+        <v>43.6621809015898</v>
       </c>
       <c r="J17" t="n">
-        <v>414.2812860995966</v>
+        <v>414.2812860995967</v>
       </c>
       <c r="K17" t="n">
-        <v>500.5400949788752</v>
+        <v>500.5400949788753</v>
       </c>
       <c r="L17" t="n">
-        <v>622.4969884717257</v>
+        <v>622.4969884717259</v>
       </c>
       <c r="M17" t="n">
-        <v>771.0236532250346</v>
+        <v>771.0236532250349</v>
       </c>
       <c r="N17" t="n">
-        <v>923.8222270873267</v>
+        <v>923.8222270873271</v>
       </c>
       <c r="O17" t="n">
         <v>1062.704806722838</v>
       </c>
       <c r="P17" t="n">
-        <v>1587.073398994776</v>
+        <v>1587.073398994777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2056.378237828688</v>
+        <v>2056.378237828689</v>
       </c>
       <c r="R17" t="n">
         <v>2183.10904507949</v>
       </c>
       <c r="S17" t="n">
-        <v>2079.723612210913</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="T17" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="U17" t="n">
-        <v>1606.695794978713</v>
+        <v>1710.08122784729</v>
       </c>
       <c r="V17" t="n">
-        <v>1582.935222848495</v>
+        <v>1710.08122784729</v>
       </c>
       <c r="W17" t="n">
-        <v>1582.935222848495</v>
+        <v>1326.320926982459</v>
       </c>
       <c r="X17" t="n">
-        <v>1582.935222848495</v>
+        <v>1326.320926982459</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.935222848495</v>
+        <v>925.3842539305489</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>107.1765480069175</v>
       </c>
       <c r="H18" t="n">
-        <v>43.66218090158979</v>
+        <v>43.6621809015898</v>
       </c>
       <c r="I18" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746691</v>
       </c>
       <c r="J18" t="n">
-        <v>62.1537090890838</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K18" t="n">
-        <v>602.4731977462575</v>
+        <v>851.077460886768</v>
       </c>
       <c r="L18" t="n">
-        <v>1142.792686403431</v>
+        <v>1054.631691071739</v>
       </c>
       <c r="M18" t="n">
-        <v>1271.783363993311</v>
+        <v>1183.622368661619</v>
       </c>
       <c r="N18" t="n">
-        <v>1410.023542186133</v>
+        <v>1321.862546854441</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.428460200631</v>
+        <v>1439.326285434411</v>
       </c>
       <c r="P18" t="n">
-        <v>2006.873574368651</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q18" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R18" t="n">
         <v>2044.442569349528</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>464.1185385050163</v>
+        <v>535.8266561850317</v>
       </c>
       <c r="C19" t="n">
-        <v>464.1185385050163</v>
+        <v>535.8266561850317</v>
       </c>
       <c r="D19" t="n">
-        <v>304.6238938279263</v>
+        <v>535.8266561850317</v>
       </c>
       <c r="E19" t="n">
-        <v>304.6238938279263</v>
+        <v>374.9158410533512</v>
       </c>
       <c r="F19" t="n">
-        <v>304.6238938279263</v>
+        <v>210.2847151639424</v>
       </c>
       <c r="G19" t="n">
-        <v>187.6874182576087</v>
+        <v>43.6621809015898</v>
       </c>
       <c r="H19" t="n">
-        <v>43.66218090158979</v>
+        <v>43.6621809015898</v>
       </c>
       <c r="I19" t="n">
-        <v>43.66218090158979</v>
+        <v>43.6621809015898</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2508563378975</v>
+        <v>101.2508563378977</v>
       </c>
       <c r="K19" t="n">
-        <v>327.2971136830525</v>
+        <v>327.2971136830527</v>
       </c>
       <c r="L19" t="n">
-        <v>678.6818293819856</v>
+        <v>678.6818293819858</v>
       </c>
       <c r="M19" t="n">
         <v>1064.406748771458</v>
@@ -5697,28 +5697,28 @@
         <v>2183.10904507949</v>
       </c>
       <c r="R19" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="S19" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857612</v>
       </c>
       <c r="T19" t="n">
-        <v>1950.617115920886</v>
+        <v>1770.793030758759</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.853215202216</v>
+        <v>1488.029130040088</v>
       </c>
       <c r="V19" t="n">
-        <v>1393.967470141738</v>
+        <v>1214.14338497961</v>
       </c>
       <c r="W19" t="n">
-        <v>1114.897805650613</v>
+        <v>935.0737204884847</v>
       </c>
       <c r="X19" t="n">
-        <v>876.553943510296</v>
+        <v>696.7298583481681</v>
       </c>
       <c r="Y19" t="n">
-        <v>651.8182448990607</v>
+        <v>535.8266561850317</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1515.939349599336</v>
+        <v>1115.002676547427</v>
       </c>
       <c r="C20" t="n">
-        <v>1105.814758912607</v>
+        <v>1115.002676547427</v>
       </c>
       <c r="D20" t="n">
-        <v>1105.814758912607</v>
+        <v>1115.002676547427</v>
       </c>
       <c r="E20" t="n">
-        <v>691.4745434295032</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="F20" t="n">
-        <v>270.4441313831908</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="G20" t="n">
-        <v>76.05204556105591</v>
+        <v>340.2360102722438</v>
       </c>
       <c r="H20" t="n">
-        <v>76.05204556105591</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I20" t="n">
         <v>43.66218090158979</v>
@@ -5755,22 +5755,22 @@
         <v>414.2812860995966</v>
       </c>
       <c r="K20" t="n">
-        <v>500.5400949788752</v>
+        <v>954.6007747567702</v>
       </c>
       <c r="L20" t="n">
-        <v>622.4969884717257</v>
+        <v>1076.557668249621</v>
       </c>
       <c r="M20" t="n">
-        <v>771.0236532250346</v>
+        <v>1225.08433300293</v>
       </c>
       <c r="N20" t="n">
-        <v>923.8222270873267</v>
+        <v>1377.882906865222</v>
       </c>
       <c r="O20" t="n">
-        <v>1464.1417157445</v>
+        <v>1892.807708936237</v>
       </c>
       <c r="P20" t="n">
-        <v>1587.073398994776</v>
+        <v>1997.367872145229</v>
       </c>
       <c r="Q20" t="n">
         <v>2056.378237828688</v>
@@ -5797,7 +5797,7 @@
         <v>1926.160529263826</v>
       </c>
       <c r="Y20" t="n">
-        <v>1926.160529263826</v>
+        <v>1525.223856211916</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I21" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J21" t="n">
-        <v>62.15370908908379</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K21" t="n">
-        <v>602.4731977462574</v>
+        <v>374.0156432028919</v>
       </c>
       <c r="L21" t="n">
-        <v>706.2915720191577</v>
+        <v>477.8340174757922</v>
       </c>
       <c r="M21" t="n">
-        <v>835.282249609038</v>
+        <v>606.8246950656725</v>
       </c>
       <c r="N21" t="n">
-        <v>973.5224278018597</v>
+        <v>745.0648732584943</v>
       </c>
       <c r="O21" t="n">
-        <v>1513.841916459033</v>
+        <v>985.4519109452582</v>
       </c>
       <c r="P21" t="n">
-        <v>2006.873574368651</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q21" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R21" t="n">
         <v>2044.442569349528</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>777.3165727599976</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="C22" t="n">
-        <v>777.3165727599976</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="D22" t="n">
-        <v>777.3165727599976</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="E22" t="n">
-        <v>616.4057576283171</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="F22" t="n">
-        <v>451.7746317389084</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="G22" t="n">
-        <v>285.1520974765558</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="H22" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I22" t="n">
         <v>43.66218090158979</v>
@@ -5934,28 +5934,28 @@
         <v>2183.109045079489</v>
       </c>
       <c r="R22" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S22" t="n">
-        <v>2039.079451564632</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.079451564632</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U22" t="n">
-        <v>1756.315550845962</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.429805785484</v>
+        <v>1214.143384979609</v>
       </c>
       <c r="W22" t="n">
-        <v>1203.360141294359</v>
+        <v>935.0737204884838</v>
       </c>
       <c r="X22" t="n">
-        <v>965.016279154042</v>
+        <v>696.7298583481672</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.016279154042</v>
+        <v>471.9941597369319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1844.405733982404</v>
+        <v>2020.155512297442</v>
       </c>
       <c r="C23" t="n">
-        <v>1434.281143295674</v>
+        <v>1610.030921610712</v>
       </c>
       <c r="D23" t="n">
-        <v>1029.817213388735</v>
+        <v>1205.566991703772</v>
       </c>
       <c r="E23" t="n">
-        <v>615.4769979056314</v>
+        <v>791.2267762206691</v>
       </c>
       <c r="F23" t="n">
-        <v>194.4465858593189</v>
+        <v>791.2267762206691</v>
       </c>
       <c r="G23" t="n">
-        <v>87.32436180317957</v>
+        <v>383.8981911738335</v>
       </c>
       <c r="H23" t="n">
-        <v>87.32436180317957</v>
+        <v>87.32436180317958</v>
       </c>
       <c r="I23" t="n">
-        <v>87.32436180317957</v>
+        <v>87.32436180317958</v>
       </c>
       <c r="J23" t="n">
         <v>457.9434670011864</v>
       </c>
       <c r="K23" t="n">
-        <v>992.7900006854092</v>
+        <v>1170.606802765989</v>
       </c>
       <c r="L23" t="n">
-        <v>1921.868838072714</v>
+        <v>1867.656160760305</v>
       </c>
       <c r="M23" t="n">
-        <v>2939.071416030252</v>
+        <v>2016.182825513614</v>
       </c>
       <c r="N23" t="n">
-        <v>3937.034174380215</v>
+        <v>2168.981399375906</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.916754015726</v>
+        <v>3043.752713298048</v>
       </c>
       <c r="P23" t="n">
-        <v>4180.476917224718</v>
+        <v>3770.182444074266</v>
       </c>
       <c r="Q23" t="n">
-        <v>4239.487282908177</v>
+        <v>4239.487282908178</v>
       </c>
       <c r="R23" t="n">
-        <v>4366.218090158978</v>
+        <v>4366.218090158979</v>
       </c>
       <c r="S23" t="n">
         <v>4262.832657290402</v>
       </c>
       <c r="T23" t="n">
-        <v>4046.753355873865</v>
+        <v>4046.753355873866</v>
       </c>
       <c r="U23" t="n">
-        <v>3789.804840058202</v>
+        <v>3965.554618373239</v>
       </c>
       <c r="V23" t="n">
-        <v>3439.967285394683</v>
+        <v>3615.71706370972</v>
       </c>
       <c r="W23" t="n">
-        <v>3056.206984529851</v>
+        <v>3231.956762844889</v>
       </c>
       <c r="X23" t="n">
-        <v>2655.563586698804</v>
+        <v>2831.313365013841</v>
       </c>
       <c r="Y23" t="n">
-        <v>2254.626913646894</v>
+        <v>2430.376691961931</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>150.8387289085073</v>
       </c>
       <c r="H24" t="n">
-        <v>87.32436180317957</v>
+        <v>87.32436180317958</v>
       </c>
       <c r="I24" t="n">
-        <v>87.32436180317957</v>
+        <v>92.26022096905669</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8158899906736</v>
+        <v>354.420153131184</v>
       </c>
       <c r="K24" t="n">
-        <v>169.0735609639712</v>
+        <v>928.7516053265495</v>
       </c>
       <c r="L24" t="n">
-        <v>272.8919352368716</v>
+        <v>1579.396046739548</v>
       </c>
       <c r="M24" t="n">
-        <v>401.8826128267518</v>
+        <v>1708.386724329429</v>
       </c>
       <c r="N24" t="n">
-        <v>540.1227910195737</v>
+        <v>1846.62690252225</v>
       </c>
       <c r="O24" t="n">
-        <v>1418.717584355438</v>
+        <v>1964.090641102221</v>
       </c>
       <c r="P24" t="n">
         <v>2050.535755270241</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>740.2726485652091</v>
+        <v>728.1422690775908</v>
       </c>
       <c r="C25" t="n">
-        <v>569.1792761269256</v>
+        <v>557.0488966393073</v>
       </c>
       <c r="D25" t="n">
-        <v>569.1792761269256</v>
+        <v>557.0488966393073</v>
       </c>
       <c r="E25" t="n">
-        <v>562.6032593109599</v>
+        <v>396.1380815076267</v>
       </c>
       <c r="F25" t="n">
-        <v>397.9721334215511</v>
+        <v>396.1380815076267</v>
       </c>
       <c r="G25" t="n">
-        <v>231.3495991591985</v>
+        <v>229.5155472452741</v>
       </c>
       <c r="H25" t="n">
-        <v>87.32436180317957</v>
+        <v>87.32436180317958</v>
       </c>
       <c r="I25" t="n">
-        <v>87.32436180317957</v>
+        <v>87.32436180317958</v>
       </c>
       <c r="J25" t="n">
-        <v>144.9130372394875</v>
+        <v>144.9130372394876</v>
       </c>
       <c r="K25" t="n">
         <v>370.9592945846425</v>
@@ -6177,22 +6177,22 @@
         <v>2226.771225981079</v>
       </c>
       <c r="T25" t="n">
-        <v>2226.771225981079</v>
+        <v>1989.905147882225</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.007325262409</v>
+        <v>1707.141247163555</v>
       </c>
       <c r="V25" t="n">
-        <v>1670.121580201931</v>
+        <v>1433.255502103077</v>
       </c>
       <c r="W25" t="n">
-        <v>1391.051915710805</v>
+        <v>1154.185837611952</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.708053570489</v>
+        <v>915.8419754716351</v>
       </c>
       <c r="Y25" t="n">
-        <v>927.9723549592535</v>
+        <v>915.8419754716351</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2277.963808678876</v>
+        <v>1066.16255813143</v>
       </c>
       <c r="C26" t="n">
-        <v>1989.296248027422</v>
+        <v>656.0379674447</v>
       </c>
       <c r="D26" t="n">
-        <v>1584.832318120483</v>
+        <v>251.5740375377605</v>
       </c>
       <c r="E26" t="n">
-        <v>1170.49210263738</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="F26" t="n">
-        <v>749.4616905910671</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1331055442315</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="H26" t="n">
-        <v>45.55927617357752</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="I26" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="J26" t="n">
         <v>416.1783813715844</v>
       </c>
       <c r="K26" t="n">
-        <v>502.437190250863</v>
+        <v>979.9744240196063</v>
       </c>
       <c r="L26" t="n">
-        <v>624.3940837437134</v>
+        <v>1137.16018113406</v>
       </c>
       <c r="M26" t="n">
-        <v>874.6893771016385</v>
+        <v>1285.686845887369</v>
       </c>
       <c r="N26" t="n">
-        <v>1438.48541974966</v>
+        <v>1438.485419749661</v>
       </c>
       <c r="O26" t="n">
-        <v>1577.367999385171</v>
+        <v>1577.367999385172</v>
       </c>
       <c r="P26" t="n">
-        <v>1681.928162594163</v>
+        <v>1681.928162594164</v>
       </c>
       <c r="Q26" t="n">
-        <v>2151.233001428075</v>
+        <v>2151.233001428076</v>
       </c>
       <c r="R26" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="S26" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="T26" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="U26" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="V26" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.963808678876</v>
+        <v>1877.320410847829</v>
       </c>
       <c r="Y26" t="n">
-        <v>2277.963808678876</v>
+        <v>1476.383737795919</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>109.0736432789052</v>
       </c>
       <c r="H27" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="I27" t="n">
-        <v>45.55927617357752</v>
+        <v>50.49513533945464</v>
       </c>
       <c r="J27" t="n">
-        <v>64.05080436107153</v>
+        <v>312.6550675015819</v>
       </c>
       <c r="K27" t="n">
-        <v>127.3084753343692</v>
+        <v>876.4511101496039</v>
       </c>
       <c r="L27" t="n">
-        <v>656.4932919837536</v>
+        <v>980.2694844225042</v>
       </c>
       <c r="M27" t="n">
-        <v>1220.289334631775</v>
+        <v>1109.260162012384</v>
       </c>
       <c r="N27" t="n">
-        <v>1358.529512824597</v>
+        <v>1247.500340205206</v>
       </c>
       <c r="O27" t="n">
-        <v>1922.325555472619</v>
+        <v>1364.964078785177</v>
       </c>
       <c r="P27" t="n">
-        <v>2008.770669640639</v>
+        <v>1527.66849487442</v>
       </c>
       <c r="Q27" t="n">
-        <v>2046.339664621516</v>
+        <v>1971.20764685907</v>
       </c>
       <c r="R27" t="n">
         <v>2046.339664621516</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>322.107224005549</v>
+        <v>286.1915486148754</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0138515672655</v>
+        <v>115.0981761765919</v>
       </c>
       <c r="D28" t="n">
-        <v>138.5169445009765</v>
+        <v>115.0981761765919</v>
       </c>
       <c r="E28" t="n">
-        <v>138.5169445009765</v>
+        <v>115.0981761765919</v>
       </c>
       <c r="F28" t="n">
-        <v>138.5169445009765</v>
+        <v>115.0981761765919</v>
       </c>
       <c r="G28" t="n">
-        <v>138.5169445009765</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5169445009765</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="I28" t="n">
-        <v>138.5169445009765</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="J28" t="n">
-        <v>196.1056199372845</v>
+        <v>103.1479516098855</v>
       </c>
       <c r="K28" t="n">
-        <v>422.1518772824394</v>
+        <v>329.1942089550404</v>
       </c>
       <c r="L28" t="n">
-        <v>773.536592981372</v>
+        <v>680.578924653973</v>
       </c>
       <c r="M28" t="n">
-        <v>1159.261512370845</v>
+        <v>1066.303844043446</v>
       </c>
       <c r="N28" t="n">
-        <v>1534.267533993777</v>
+        <v>1441.309865666378</v>
       </c>
       <c r="O28" t="n">
-        <v>1880.806831157271</v>
+        <v>1787.849162829872</v>
       </c>
       <c r="P28" t="n">
-        <v>2160.907564028424</v>
+        <v>2067.949895701025</v>
       </c>
       <c r="Q28" t="n">
-        <v>2277.963808678876</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="R28" t="n">
-        <v>2220.921815742151</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="S28" t="n">
-        <v>2045.471879520273</v>
+        <v>2009.556204129599</v>
       </c>
       <c r="T28" t="n">
-        <v>1808.605801421419</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="U28" t="n">
-        <v>1525.841900702749</v>
+        <v>1489.926225312075</v>
       </c>
       <c r="V28" t="n">
-        <v>1251.956155642271</v>
+        <v>1216.040480251597</v>
       </c>
       <c r="W28" t="n">
-        <v>972.8864911511453</v>
+        <v>936.9708157604716</v>
       </c>
       <c r="X28" t="n">
-        <v>734.5426290108287</v>
+        <v>698.6269536201551</v>
       </c>
       <c r="Y28" t="n">
-        <v>509.8069303995934</v>
+        <v>473.8912550089198</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>116.4854011865419</v>
+        <v>1270.534340368647</v>
       </c>
       <c r="C29" t="n">
-        <v>77.94914083304364</v>
+        <v>1270.534340368647</v>
       </c>
       <c r="D29" t="n">
-        <v>77.94914083304364</v>
+        <v>913.3197683624594</v>
       </c>
       <c r="E29" t="n">
-        <v>77.94914083304364</v>
+        <v>498.9795528793561</v>
       </c>
       <c r="F29" t="n">
-        <v>77.94914083304364</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="G29" t="n">
-        <v>77.94914083304364</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="H29" t="n">
-        <v>77.94914083304364</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="I29" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="J29" t="n">
-        <v>89.40255448385523</v>
+        <v>416.1783813715844</v>
       </c>
       <c r="K29" t="n">
-        <v>175.6613633631338</v>
+        <v>979.9744240196063</v>
       </c>
       <c r="L29" t="n">
-        <v>739.4574060111556</v>
+        <v>1543.770466667628</v>
       </c>
       <c r="M29" t="n">
-        <v>1303.253448659177</v>
+        <v>1692.297131420937</v>
       </c>
       <c r="N29" t="n">
-        <v>1867.049491307199</v>
+        <v>1975.510700150915</v>
       </c>
       <c r="O29" t="n">
-        <v>2114.393279786425</v>
+        <v>2114.393279786426</v>
       </c>
       <c r="P29" t="n">
-        <v>2218.953442995416</v>
+        <v>2218.953442995417</v>
       </c>
       <c r="Q29" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="R29" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="S29" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="T29" t="n">
-        <v>2061.884507262339</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="U29" t="n">
-        <v>2061.884507262339</v>
+        <v>2021.015292863214</v>
       </c>
       <c r="V29" t="n">
-        <v>1712.04695259882</v>
+        <v>1671.177738199694</v>
       </c>
       <c r="W29" t="n">
-        <v>1328.286651733989</v>
+        <v>1671.177738199694</v>
       </c>
       <c r="X29" t="n">
-        <v>927.6432539029413</v>
+        <v>1270.534340368647</v>
       </c>
       <c r="Y29" t="n">
-        <v>526.7065808510314</v>
+        <v>1270.534340368647</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>109.0736432789052</v>
       </c>
       <c r="H30" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="I30" t="n">
-        <v>45.55927617357752</v>
+        <v>50.49513533945464</v>
       </c>
       <c r="J30" t="n">
-        <v>64.05080436107153</v>
+        <v>312.6550675015819</v>
       </c>
       <c r="K30" t="n">
-        <v>127.3084753343692</v>
+        <v>876.4511101496039</v>
       </c>
       <c r="L30" t="n">
-        <v>231.1268496072695</v>
+        <v>980.2694844225042</v>
       </c>
       <c r="M30" t="n">
-        <v>794.7334701765753</v>
+        <v>1109.260162012384</v>
       </c>
       <c r="N30" t="n">
-        <v>1358.529512824597</v>
+        <v>1247.500340205206</v>
       </c>
       <c r="O30" t="n">
-        <v>1922.325555472619</v>
+        <v>1364.964078785177</v>
       </c>
       <c r="P30" t="n">
-        <v>2008.770669640639</v>
+        <v>1527.66849487442</v>
       </c>
       <c r="Q30" t="n">
-        <v>2046.339664621516</v>
+        <v>1971.20764685907</v>
       </c>
       <c r="R30" t="n">
         <v>2046.339664621516</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229.14955567815</v>
+        <v>649.3411912307976</v>
       </c>
       <c r="C31" t="n">
-        <v>58.0561832398665</v>
+        <v>478.2478187925141</v>
       </c>
       <c r="D31" t="n">
-        <v>45.55927617357752</v>
+        <v>478.2478187925141</v>
       </c>
       <c r="E31" t="n">
-        <v>45.55927617357752</v>
+        <v>478.2478187925141</v>
       </c>
       <c r="F31" t="n">
-        <v>45.55927617357752</v>
+        <v>313.6166929031053</v>
       </c>
       <c r="G31" t="n">
-        <v>45.55927617357752</v>
+        <v>189.5845135295964</v>
       </c>
       <c r="H31" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="I31" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="J31" t="n">
         <v>103.1479516098855</v>
@@ -6645,28 +6645,28 @@
         <v>2185.006140351477</v>
       </c>
       <c r="R31" t="n">
-        <v>2127.964147414752</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="S31" t="n">
-        <v>1952.514211192874</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="T31" t="n">
-        <v>1715.64813309402</v>
+        <v>1948.140062252623</v>
       </c>
       <c r="U31" t="n">
-        <v>1432.88423237535</v>
+        <v>1665.376161533953</v>
       </c>
       <c r="V31" t="n">
-        <v>1158.998487314872</v>
+        <v>1391.490416473475</v>
       </c>
       <c r="W31" t="n">
-        <v>879.9288228237463</v>
+        <v>1112.420751982349</v>
       </c>
       <c r="X31" t="n">
-        <v>641.5849606834297</v>
+        <v>874.0768898420329</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.8492620721944</v>
+        <v>649.3411912307976</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1727.908288956129</v>
+        <v>1557.855676562716</v>
       </c>
       <c r="C32" t="n">
-        <v>1317.783698269399</v>
+        <v>1557.855676562716</v>
       </c>
       <c r="D32" t="n">
-        <v>913.3197683624594</v>
+        <v>1153.391746655776</v>
       </c>
       <c r="E32" t="n">
-        <v>498.9795528793561</v>
+        <v>739.0515311726731</v>
       </c>
       <c r="F32" t="n">
-        <v>77.94914083304364</v>
+        <v>318.0211191263606</v>
       </c>
       <c r="G32" t="n">
-        <v>77.94914083304364</v>
+        <v>318.0211191263606</v>
       </c>
       <c r="H32" t="n">
-        <v>77.94914083304364</v>
+        <v>77.94914083304366</v>
       </c>
       <c r="I32" t="n">
-        <v>45.55927617357752</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="J32" t="n">
-        <v>89.40255448385523</v>
+        <v>416.1783813715844</v>
       </c>
       <c r="K32" t="n">
-        <v>175.6613633631338</v>
+        <v>979.9744240196063</v>
       </c>
       <c r="L32" t="n">
-        <v>437.624141704418</v>
+        <v>1249.271998522803</v>
       </c>
       <c r="M32" t="n">
-        <v>1001.42018435244</v>
+        <v>1397.798663276112</v>
       </c>
       <c r="N32" t="n">
-        <v>1565.216227000461</v>
+        <v>1550.597237138404</v>
       </c>
       <c r="O32" t="n">
-        <v>1704.098806635973</v>
+        <v>2114.393279786426</v>
       </c>
       <c r="P32" t="n">
-        <v>1808.658969844964</v>
+        <v>2218.953442995417</v>
       </c>
       <c r="Q32" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="R32" t="n">
-        <v>2277.963808678876</v>
+        <v>2277.963808678877</v>
       </c>
       <c r="S32" t="n">
-        <v>2174.578375810299</v>
+        <v>2174.5783758103</v>
       </c>
       <c r="T32" t="n">
-        <v>2174.578375810299</v>
+        <v>1958.499074393763</v>
       </c>
       <c r="U32" t="n">
-        <v>2174.578375810299</v>
+        <v>1958.499074393763</v>
       </c>
       <c r="V32" t="n">
-        <v>2174.578375810299</v>
+        <v>1958.499074393763</v>
       </c>
       <c r="W32" t="n">
-        <v>2128.844962008039</v>
+        <v>1958.499074393763</v>
       </c>
       <c r="X32" t="n">
-        <v>2128.844962008039</v>
+        <v>1557.855676562716</v>
       </c>
       <c r="Y32" t="n">
-        <v>1727.908288956129</v>
+        <v>1557.855676562716</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>927.2839198579371</v>
+        <v>695.6597758005776</v>
       </c>
       <c r="C33" t="n">
-        <v>793.2888486068828</v>
+        <v>561.6647045495232</v>
       </c>
       <c r="D33" t="n">
-        <v>676.3916908262752</v>
+        <v>444.7675467689156</v>
       </c>
       <c r="E33" t="n">
-        <v>555.8988748186032</v>
+        <v>324.2747307612436</v>
       </c>
       <c r="F33" t="n">
-        <v>446.9389950011077</v>
+        <v>215.3148509437482</v>
       </c>
       <c r="G33" t="n">
-        <v>340.6977873362648</v>
+        <v>109.0736432789052</v>
       </c>
       <c r="H33" t="n">
-        <v>277.1834202309371</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="I33" t="n">
-        <v>277.1834202309371</v>
+        <v>50.49513533945464</v>
       </c>
       <c r="J33" t="n">
-        <v>295.6749484184311</v>
+        <v>312.6550675015819</v>
       </c>
       <c r="K33" t="n">
-        <v>358.9326193917287</v>
+        <v>876.4511101496039</v>
       </c>
       <c r="L33" t="n">
-        <v>462.7509936646291</v>
+        <v>1131.660804106173</v>
       </c>
       <c r="M33" t="n">
-        <v>620.3874572301613</v>
+        <v>1260.651481696053</v>
       </c>
       <c r="N33" t="n">
-        <v>1184.183499878183</v>
+        <v>1398.891659888875</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.979542526205</v>
+        <v>1516.355398468845</v>
       </c>
       <c r="P33" t="n">
-        <v>1834.424656694225</v>
+        <v>1602.800512636866</v>
       </c>
       <c r="Q33" t="n">
-        <v>2277.963808678876</v>
+        <v>2046.339664621516</v>
       </c>
       <c r="R33" t="n">
-        <v>2277.963808678876</v>
+        <v>2046.339664621516</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.884381087772</v>
+        <v>1952.260237030412</v>
       </c>
       <c r="T33" t="n">
-        <v>2027.561130056061</v>
+        <v>1795.936985998701</v>
       </c>
       <c r="U33" t="n">
-        <v>1830.259589261439</v>
+        <v>1598.635445204079</v>
       </c>
       <c r="V33" t="n">
-        <v>1616.548062254472</v>
+        <v>1384.923918197112</v>
       </c>
       <c r="W33" t="n">
-        <v>1403.314893990801</v>
+        <v>1171.690749933441</v>
       </c>
       <c r="X33" t="n">
-        <v>1226.988912129694</v>
+        <v>995.3647680723342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1067.586952493524</v>
+        <v>835.9628084361642</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>940.6635483664022</v>
+        <v>383.2751828742137</v>
       </c>
       <c r="C34" t="n">
-        <v>769.5701759281187</v>
+        <v>212.1818104359301</v>
       </c>
       <c r="D34" t="n">
-        <v>610.0755312510287</v>
+        <v>212.1818104359301</v>
       </c>
       <c r="E34" t="n">
-        <v>449.1647161193481</v>
+        <v>212.1818104359301</v>
       </c>
       <c r="F34" t="n">
-        <v>449.1647161193481</v>
+        <v>212.1818104359301</v>
       </c>
       <c r="G34" t="n">
-        <v>282.5421818569955</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5169445009765</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="I34" t="n">
-        <v>138.5169445009765</v>
+        <v>45.55927617357754</v>
       </c>
       <c r="J34" t="n">
-        <v>196.1056199372845</v>
+        <v>103.1479516098855</v>
       </c>
       <c r="K34" t="n">
-        <v>422.1518772824394</v>
+        <v>329.1942089550404</v>
       </c>
       <c r="L34" t="n">
-        <v>773.536592981372</v>
+        <v>680.578924653973</v>
       </c>
       <c r="M34" t="n">
-        <v>1159.261512370845</v>
+        <v>1066.303844043446</v>
       </c>
       <c r="N34" t="n">
-        <v>1534.267533993777</v>
+        <v>1441.309865666378</v>
       </c>
       <c r="O34" t="n">
-        <v>1880.806831157271</v>
+        <v>1787.849162829872</v>
       </c>
       <c r="P34" t="n">
-        <v>2160.907564028424</v>
+        <v>2067.949895701025</v>
       </c>
       <c r="Q34" t="n">
-        <v>2277.963808678876</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="R34" t="n">
-        <v>2220.921815742151</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="S34" t="n">
-        <v>2220.921815742151</v>
+        <v>2009.556204129599</v>
       </c>
       <c r="T34" t="n">
-        <v>1984.055737643297</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="U34" t="n">
-        <v>1701.291836924627</v>
+        <v>1489.926225312075</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.291836924627</v>
+        <v>1216.040480251597</v>
       </c>
       <c r="W34" t="n">
-        <v>1591.442815511999</v>
+        <v>936.9708157604716</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.098953371682</v>
+        <v>698.6269536201551</v>
       </c>
       <c r="Y34" t="n">
-        <v>1128.363254760447</v>
+        <v>473.8912550089198</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1728.875848824037</v>
+        <v>1556.808563998464</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.751258137307</v>
+        <v>1556.808563998464</v>
       </c>
       <c r="D35" t="n">
-        <v>1318.751258137307</v>
+        <v>1556.808563998464</v>
       </c>
       <c r="E35" t="n">
-        <v>904.4110426542039</v>
+        <v>1142.46834851536</v>
       </c>
       <c r="F35" t="n">
-        <v>483.3806306078915</v>
+        <v>721.4379364690478</v>
       </c>
       <c r="G35" t="n">
-        <v>76.05204556105591</v>
+        <v>314.1093514222123</v>
       </c>
       <c r="H35" t="n">
         <v>76.05204556105591</v>
@@ -6943,19 +6943,19 @@
         <v>500.5400949788752</v>
       </c>
       <c r="L35" t="n">
-        <v>673.2861519863791</v>
+        <v>622.4969884717257</v>
       </c>
       <c r="M35" t="n">
-        <v>1213.605640643553</v>
+        <v>771.0236532250346</v>
       </c>
       <c r="N35" t="n">
-        <v>1753.925129300726</v>
+        <v>923.8222270873267</v>
       </c>
       <c r="O35" t="n">
-        <v>1892.807708936238</v>
+        <v>1062.704806722838</v>
       </c>
       <c r="P35" t="n">
-        <v>1997.367872145229</v>
+        <v>1587.073398994776</v>
       </c>
       <c r="Q35" t="n">
         <v>2056.378237828688</v>
@@ -6967,22 +6967,22 @@
         <v>2183.10904507949</v>
       </c>
       <c r="T35" t="n">
-        <v>2183.10904507949</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="U35" t="n">
-        <v>2139.097028488526</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="V35" t="n">
-        <v>2139.097028488526</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="W35" t="n">
-        <v>2139.097028488526</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.097028488526</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="Y35" t="n">
-        <v>2139.097028488526</v>
+        <v>1967.029743662953</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I36" t="n">
-        <v>43.66218090158979</v>
+        <v>48.5980400674669</v>
       </c>
       <c r="J36" t="n">
-        <v>305.8221130637171</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K36" t="n">
-        <v>846.1416017208908</v>
+        <v>851.0774608867679</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9599759937911</v>
+        <v>1054.631691071739</v>
       </c>
       <c r="M36" t="n">
-        <v>1078.950653583671</v>
+        <v>1183.622368661619</v>
       </c>
       <c r="N36" t="n">
-        <v>1217.190831776493</v>
+        <v>1321.862546854441</v>
       </c>
       <c r="O36" t="n">
         <v>1439.326285434411</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>285.1520974765558</v>
+        <v>1010.439910656424</v>
       </c>
       <c r="C37" t="n">
-        <v>285.1520974765558</v>
+        <v>839.3465382181407</v>
       </c>
       <c r="D37" t="n">
-        <v>285.1520974765558</v>
+        <v>679.8518935410507</v>
       </c>
       <c r="E37" t="n">
-        <v>285.1520974765558</v>
+        <v>518.9410784093701</v>
       </c>
       <c r="F37" t="n">
-        <v>285.1520974765558</v>
+        <v>354.3099525199614</v>
       </c>
       <c r="G37" t="n">
-        <v>285.1520974765558</v>
+        <v>187.6874182576087</v>
       </c>
       <c r="H37" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I37" t="n">
         <v>43.66218090158979</v>
@@ -7119,28 +7119,28 @@
         <v>2183.109045079489</v>
       </c>
       <c r="R37" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="S37" t="n">
-        <v>1950.617115920886</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="T37" t="n">
-        <v>1713.751037822032</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.987137103362</v>
+        <v>1900.345144360819</v>
       </c>
       <c r="V37" t="n">
-        <v>1157.101392042884</v>
+        <v>1900.345144360819</v>
       </c>
       <c r="W37" t="n">
-        <v>878.0317275517584</v>
+        <v>1621.275479869694</v>
       </c>
       <c r="X37" t="n">
-        <v>639.6878654114419</v>
+        <v>1422.875315661704</v>
       </c>
       <c r="Y37" t="n">
-        <v>414.9521668002066</v>
+        <v>1198.139617050469</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1696.485984164571</v>
+        <v>900.5168517308891</v>
       </c>
       <c r="C38" t="n">
-        <v>1286.361393477841</v>
+        <v>490.3922610441592</v>
       </c>
       <c r="D38" t="n">
-        <v>1286.361393477841</v>
+        <v>490.3922610441592</v>
       </c>
       <c r="E38" t="n">
-        <v>872.0211779947379</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="F38" t="n">
-        <v>450.9907659484253</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="G38" t="n">
-        <v>43.66218090158979</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="H38" t="n">
-        <v>43.66218090158979</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="I38" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J38" t="n">
-        <v>87.50545921186749</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K38" t="n">
-        <v>173.7642680911461</v>
+        <v>500.5400949788752</v>
       </c>
       <c r="L38" t="n">
-        <v>714.0837567483197</v>
+        <v>622.4969884717257</v>
       </c>
       <c r="M38" t="n">
-        <v>1254.403245405493</v>
+        <v>771.0236532250346</v>
       </c>
       <c r="N38" t="n">
-        <v>1794.722734062667</v>
+        <v>923.8222270873267</v>
       </c>
       <c r="O38" t="n">
-        <v>2019.538516187039</v>
+        <v>1062.704806722838</v>
       </c>
       <c r="P38" t="n">
-        <v>2124.09867939603</v>
+        <v>1587.073398994776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2183.10904507949</v>
+        <v>2056.378237828688</v>
       </c>
       <c r="R38" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S38" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T38" t="n">
-        <v>2183.10904507949</v>
+        <v>2061.218983889945</v>
       </c>
       <c r="U38" t="n">
-        <v>2106.707163829061</v>
+        <v>2061.218983889945</v>
       </c>
       <c r="V38" t="n">
-        <v>2106.707163829061</v>
+        <v>1711.381429226426</v>
       </c>
       <c r="W38" t="n">
-        <v>2106.707163829061</v>
+        <v>1711.381429226426</v>
       </c>
       <c r="X38" t="n">
-        <v>2106.707163829061</v>
+        <v>1310.738031395379</v>
       </c>
       <c r="Y38" t="n">
-        <v>2106.707163829061</v>
+        <v>1310.738031395379</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>322.3776354892559</v>
       </c>
       <c r="F39" t="n">
-        <v>213.4177556717605</v>
+        <v>213.4177556717604</v>
       </c>
       <c r="G39" t="n">
         <v>107.1765480069175</v>
@@ -7250,31 +7250,31 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I39" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J39" t="n">
-        <v>62.1537090890838</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K39" t="n">
-        <v>125.4113800623815</v>
+        <v>851.0774608867678</v>
       </c>
       <c r="L39" t="n">
-        <v>665.7308687195551</v>
+        <v>954.8958351596681</v>
       </c>
       <c r="M39" t="n">
-        <v>1206.050357376729</v>
+        <v>1083.886512749548</v>
       </c>
       <c r="N39" t="n">
-        <v>1380.108971543457</v>
+        <v>1222.12669094237</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.428460200631</v>
+        <v>1339.59042952234</v>
       </c>
       <c r="P39" t="n">
-        <v>2006.873574368651</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q39" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R39" t="n">
         <v>2044.442569349528</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>777.3165727599976</v>
+        <v>459.7443895647654</v>
       </c>
       <c r="C40" t="n">
-        <v>777.3165727599976</v>
+        <v>288.6510171264819</v>
       </c>
       <c r="D40" t="n">
-        <v>777.3165727599976</v>
+        <v>129.1563724493919</v>
       </c>
       <c r="E40" t="n">
-        <v>616.4057576283171</v>
+        <v>129.1563724493919</v>
       </c>
       <c r="F40" t="n">
-        <v>451.7746317389084</v>
+        <v>129.1563724493919</v>
       </c>
       <c r="G40" t="n">
-        <v>285.1520974765558</v>
+        <v>129.1563724493919</v>
       </c>
       <c r="H40" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I40" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2508563378979</v>
+        <v>101.2508563378976</v>
       </c>
       <c r="K40" t="n">
-        <v>327.2971136830529</v>
+        <v>327.2971136830525</v>
       </c>
       <c r="L40" t="n">
-        <v>678.6818293819856</v>
+        <v>678.6818293819852</v>
       </c>
       <c r="M40" t="n">
         <v>1064.406748771458</v>
       </c>
       <c r="N40" t="n">
-        <v>1439.412770394391</v>
+        <v>1439.41277039439</v>
       </c>
       <c r="O40" t="n">
-        <v>1785.952067557885</v>
+        <v>1785.952067557884</v>
       </c>
       <c r="P40" t="n">
         <v>2066.052800429037</v>
       </c>
       <c r="Q40" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R40" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S40" t="n">
-        <v>1950.617115920886</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T40" t="n">
-        <v>1713.751037822033</v>
+        <v>1946.242966980635</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.987137103363</v>
+        <v>1663.479066261965</v>
       </c>
       <c r="V40" t="n">
-        <v>1157.101392042885</v>
+        <v>1389.593321201487</v>
       </c>
       <c r="W40" t="n">
-        <v>878.0317275517589</v>
+        <v>1110.523656710362</v>
       </c>
       <c r="X40" t="n">
-        <v>777.3165727599976</v>
+        <v>872.179794570045</v>
       </c>
       <c r="Y40" t="n">
-        <v>777.3165727599976</v>
+        <v>647.4440959588097</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1272.590916978363</v>
+        <v>1052.779733298839</v>
       </c>
       <c r="C41" t="n">
-        <v>862.4663262916326</v>
+        <v>1052.779733298839</v>
       </c>
       <c r="D41" t="n">
-        <v>458.0023963846931</v>
+        <v>1052.779733298839</v>
       </c>
       <c r="E41" t="n">
-        <v>43.66218090158979</v>
+        <v>638.4395178157354</v>
       </c>
       <c r="F41" t="n">
-        <v>43.66218090158979</v>
+        <v>217.4091057694229</v>
       </c>
       <c r="G41" t="n">
-        <v>43.66218090158979</v>
+        <v>217.4091057694229</v>
       </c>
       <c r="H41" t="n">
         <v>43.66218090158979</v>
@@ -7411,52 +7411,52 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J41" t="n">
-        <v>87.50545921186749</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K41" t="n">
-        <v>173.7642680911461</v>
+        <v>500.5400949788752</v>
       </c>
       <c r="L41" t="n">
-        <v>714.0837567483197</v>
+        <v>1040.859583636049</v>
       </c>
       <c r="M41" t="n">
-        <v>1254.403245405493</v>
+        <v>1189.386248389358</v>
       </c>
       <c r="N41" t="n">
-        <v>1470.361463401075</v>
+        <v>1342.18482225165</v>
       </c>
       <c r="O41" t="n">
-        <v>1609.244043036586</v>
+        <v>1481.067401887161</v>
       </c>
       <c r="P41" t="n">
-        <v>1713.804206245578</v>
+        <v>1713.804206245577</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R41" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S41" t="n">
-        <v>2183.10904507949</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="T41" t="n">
-        <v>2183.10904507949</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="U41" t="n">
-        <v>2183.10904507949</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="V41" t="n">
-        <v>2183.10904507949</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="W41" t="n">
-        <v>2183.10904507949</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="X41" t="n">
-        <v>1782.465647248442</v>
+        <v>1463.000912963328</v>
       </c>
       <c r="Y41" t="n">
-        <v>1381.528974196532</v>
+        <v>1463.000912963328</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>322.3776354892559</v>
       </c>
       <c r="F42" t="n">
-        <v>213.4177556717605</v>
+        <v>213.4177556717604</v>
       </c>
       <c r="G42" t="n">
         <v>107.1765480069175</v>
@@ -7487,28 +7487,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I42" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J42" t="n">
-        <v>74.14752429389563</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K42" t="n">
-        <v>137.4051952671933</v>
+        <v>851.0774608867678</v>
       </c>
       <c r="L42" t="n">
-        <v>241.2235695400936</v>
+        <v>1391.396949543941</v>
       </c>
       <c r="M42" t="n">
-        <v>781.5430581972673</v>
+        <v>1589.592525665393</v>
       </c>
       <c r="N42" t="n">
-        <v>1321.862546854441</v>
+        <v>1727.832703858215</v>
       </c>
       <c r="O42" t="n">
-        <v>1439.326285434411</v>
+        <v>1845.296442438185</v>
       </c>
       <c r="P42" t="n">
-        <v>1525.771399602432</v>
+        <v>1931.741556606205</v>
       </c>
       <c r="Q42" t="n">
         <v>1969.310551587083</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4146733004052</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="C43" t="n">
-        <v>695.3213008621217</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="D43" t="n">
-        <v>535.8266561850317</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="E43" t="n">
-        <v>374.9158410533511</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="F43" t="n">
-        <v>210.2847151639424</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="G43" t="n">
-        <v>43.66218090158979</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="H43" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="I43" t="n">
-        <v>43.66218090159015</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2508563378981</v>
+        <v>101.2508563378977</v>
       </c>
       <c r="K43" t="n">
-        <v>327.2971136830531</v>
+        <v>327.2971136830527</v>
       </c>
       <c r="L43" t="n">
-        <v>678.6818293819856</v>
+        <v>678.6818293819852</v>
       </c>
       <c r="M43" t="n">
         <v>1064.406748771458</v>
       </c>
       <c r="N43" t="n">
-        <v>1439.412770394391</v>
+        <v>1439.41277039439</v>
       </c>
       <c r="O43" t="n">
-        <v>1785.952067557885</v>
+        <v>1785.952067557884</v>
       </c>
       <c r="P43" t="n">
-        <v>2066.052800429038</v>
+        <v>2066.052800429037</v>
       </c>
       <c r="Q43" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R43" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S43" t="n">
-        <v>2183.10904507949</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T43" t="n">
-        <v>2183.10904507949</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U43" t="n">
-        <v>2070.149349997605</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="V43" t="n">
-        <v>1796.263604937127</v>
+        <v>1214.143384979609</v>
       </c>
       <c r="W43" t="n">
-        <v>1517.193940446001</v>
+        <v>935.0737204884838</v>
       </c>
       <c r="X43" t="n">
-        <v>1278.850078305685</v>
+        <v>696.7298583481672</v>
       </c>
       <c r="Y43" t="n">
-        <v>1054.11437969445</v>
+        <v>471.9941597369319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1289.157399117736</v>
+        <v>1679.080214379865</v>
       </c>
       <c r="C44" t="n">
-        <v>879.0328084310056</v>
+        <v>1268.955623693135</v>
       </c>
       <c r="D44" t="n">
-        <v>879.0328084310056</v>
+        <v>864.4916937861954</v>
       </c>
       <c r="E44" t="n">
-        <v>464.6925929479023</v>
+        <v>864.4916937861954</v>
       </c>
       <c r="F44" t="n">
-        <v>43.66218090158979</v>
+        <v>483.3806306078915</v>
       </c>
       <c r="G44" t="n">
-        <v>43.66218090158979</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="H44" t="n">
-        <v>43.66218090158979</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="I44" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J44" t="n">
-        <v>87.50545921186749</v>
+        <v>173.4386617007278</v>
       </c>
       <c r="K44" t="n">
-        <v>173.7642680911461</v>
+        <v>259.6974705800064</v>
       </c>
       <c r="L44" t="n">
-        <v>714.0837567483197</v>
+        <v>800.01695923718</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.403245405493</v>
+        <v>1340.336447894354</v>
       </c>
       <c r="N44" t="n">
-        <v>1794.722734062667</v>
+        <v>1880.655936551527</v>
       </c>
       <c r="O44" t="n">
-        <v>2019.538516187039</v>
+        <v>2019.538516187038</v>
       </c>
       <c r="P44" t="n">
         <v>2124.09867939603</v>
       </c>
       <c r="Q44" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R44" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S44" t="n">
-        <v>2183.10904507949</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="T44" t="n">
-        <v>2183.10904507949</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="U44" t="n">
-        <v>2100.315251834135</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.315251834135</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="W44" t="n">
-        <v>2100.315251834135</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="X44" t="n">
-        <v>2100.315251834135</v>
+        <v>1679.080214379865</v>
       </c>
       <c r="Y44" t="n">
-        <v>1699.378578782225</v>
+        <v>1679.080214379865</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>322.3776354892559</v>
       </c>
       <c r="F45" t="n">
-        <v>213.4177556717605</v>
+        <v>213.4177556717604</v>
       </c>
       <c r="G45" t="n">
         <v>107.1765480069175</v>
@@ -7724,28 +7724,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I45" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J45" t="n">
-        <v>62.1537090890838</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K45" t="n">
-        <v>602.4731977462575</v>
+        <v>851.0774608867678</v>
       </c>
       <c r="L45" t="n">
-        <v>706.2915720191578</v>
+        <v>1054.631691071739</v>
       </c>
       <c r="M45" t="n">
-        <v>835.282249609038</v>
+        <v>1183.622368661619</v>
       </c>
       <c r="N45" t="n">
-        <v>973.5224278018597</v>
+        <v>1321.862546854441</v>
       </c>
       <c r="O45" t="n">
-        <v>1513.841916459033</v>
+        <v>1439.326285434411</v>
       </c>
       <c r="P45" t="n">
-        <v>1931.741556606205</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q45" t="n">
         <v>1969.310551587083</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>468.66020951457</v>
+        <v>521.1605314417412</v>
       </c>
       <c r="C46" t="n">
-        <v>468.66020951457</v>
+        <v>350.0671590034577</v>
       </c>
       <c r="D46" t="n">
-        <v>468.66020951457</v>
+        <v>350.0671590034577</v>
       </c>
       <c r="E46" t="n">
-        <v>307.7493943828895</v>
+        <v>350.0671590034577</v>
       </c>
       <c r="F46" t="n">
-        <v>307.7493943828895</v>
+        <v>350.0671590034577</v>
       </c>
       <c r="G46" t="n">
-        <v>141.1268601205369</v>
+        <v>183.4446247411051</v>
       </c>
       <c r="H46" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I46" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2508563378981</v>
+        <v>101.2508563378977</v>
       </c>
       <c r="K46" t="n">
-        <v>327.2971136830531</v>
+        <v>327.2971136830526</v>
       </c>
       <c r="L46" t="n">
-        <v>678.6818293819856</v>
+        <v>678.6818293819852</v>
       </c>
       <c r="M46" t="n">
         <v>1064.406748771458</v>
       </c>
       <c r="N46" t="n">
-        <v>1439.412770394391</v>
+        <v>1439.41277039439</v>
       </c>
       <c r="O46" t="n">
-        <v>1785.952067557885</v>
+        <v>1785.952067557884</v>
       </c>
       <c r="P46" t="n">
-        <v>2066.052800429038</v>
+        <v>2066.052800429037</v>
       </c>
       <c r="Q46" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R46" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S46" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T46" t="n">
-        <v>1713.751037822033</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="U46" t="n">
-        <v>1430.987137103363</v>
+        <v>1724.895208138941</v>
       </c>
       <c r="V46" t="n">
-        <v>1157.101392042885</v>
+        <v>1451.009463078463</v>
       </c>
       <c r="W46" t="n">
-        <v>878.0317275517589</v>
+        <v>1171.939798587337</v>
       </c>
       <c r="X46" t="n">
-        <v>656.3599159086144</v>
+        <v>933.5959364470209</v>
       </c>
       <c r="Y46" t="n">
-        <v>656.3599159086144</v>
+        <v>708.8602378357856</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>537.361002360626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1513772538824</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8221,19 +8221,19 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>293.2845869185513</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>360.4692655976428</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574859</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>502.6011371814504</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8692,10 +8692,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>424.0489182454008</v>
+        <v>458.647151290803</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>93.4126833695485</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>0.2675351771111139</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
@@ -8774,7 +8774,7 @@
         <v>481.880623923107</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>440.9102165497709</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>105.7290051292403</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>69.90393791067808</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>287.3287415746577</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>458.6471512908032</v>
+        <v>424.0489182454012</v>
       </c>
       <c r="L14" t="n">
-        <v>422.5884799639629</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.779742104869</v>
+        <v>14.77974210486898</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>112.0945103022635</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>415.4836475427207</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>406.1407176407596</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>427.1270202800034</v>
       </c>
       <c r="P15" t="n">
-        <v>70.94973726649354</v>
+        <v>458.4589641304577</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.96737243892457</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>424.0489182454009</v>
+        <v>424.0489182454008</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>481.8806239231071</v>
       </c>
       <c r="L18" t="n">
-        <v>440.910216549771</v>
+        <v>100.743288800071</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>396.9102822570985</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>458.647151290803</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>405.4918272946085</v>
+        <v>379.8406287227316</v>
       </c>
       <c r="P20" t="n">
-        <v>18.55709095079206</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>481.880623923107</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>427.1270202800032</v>
+        <v>124.1649485927207</v>
       </c>
       <c r="P21" t="n">
-        <v>410.6934785268663</v>
+        <v>458.4589641304576</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>453.118913944388</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>580.9014792944096</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>552.3495627677763</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>550.8818755018004</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>482.3608421906499</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>35.58471072889232</v>
       </c>
       <c r="M26" t="n">
-        <v>102.7965945501173</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>415.1489583694239</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>505.5943148229539</v>
       </c>
       <c r="L27" t="n">
-        <v>429.6630731075596</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1973384425672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>450.8407111798499</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>77.02959790022484</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>482.3608421906499</v>
       </c>
       <c r="L29" t="n">
-        <v>446.3021708638094</v>
+        <v>446.3021708638096</v>
       </c>
       <c r="M29" t="n">
-        <v>419.4640180754675</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>415.1489583694239</v>
+        <v>131.7323180481672</v>
       </c>
       <c r="O29" t="n">
-        <v>109.5567766098128</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>505.5943148229539</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>439.0060030095207</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>429.854408540606</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>450.84071117985</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>77.02959790022484</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>482.3608421906499</v>
       </c>
       <c r="L32" t="n">
-        <v>141.4200857054886</v>
+        <v>148.8289707175211</v>
       </c>
       <c r="M32" t="n">
-        <v>419.4640180754675</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>415.148958369424</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>429.2055181944554</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0.2675351771111139</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>505.5943148229539</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>152.9205249329987</v>
       </c>
       <c r="M33" t="n">
-        <v>28.93513734914339</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>429.854408540606</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>450.84071117985</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>51.30218536833678</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>395.7503271756209</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>391.4352674695774</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.048918245401</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10670,7 +10670,7 @@
         <v>481.8806239231071</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>100.7432888000714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>105.7290051292404</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>422.5884799639628</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>395.750327175621</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>391.4352674695774</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>86.8012146352124</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>424.0489182454005</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2675351771111139</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>481.880623923107</v>
       </c>
       <c r="L39" t="n">
-        <v>440.910216549771</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>415.4836475427206</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>36.18023835748161</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>427.1270202800034</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>100.7432888000716</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>422.5884799639628</v>
+        <v>422.5884799639627</v>
       </c>
       <c r="M41" t="n">
-        <v>395.7503271756209</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>63.79762033665614</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>129.4713546963889</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>12.11496485334528</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>481.880623923107</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9102165497709</v>
       </c>
       <c r="M42" t="n">
-        <v>415.4836475427206</v>
+        <v>69.90393791067802</v>
       </c>
       <c r="N42" t="n">
-        <v>406.1407176407594</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>86.80121463521247</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>422.5884799639628</v>
       </c>
       <c r="M44" t="n">
-        <v>395.7503271756209</v>
+        <v>395.7503271756208</v>
       </c>
       <c r="N44" t="n">
-        <v>391.4352674695774</v>
+        <v>391.4352674695772</v>
       </c>
       <c r="O44" t="n">
-        <v>86.8012146352124</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>481.8806239231071</v>
+        <v>481.880623923107</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>100.7432888000715</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>427.1270202800033</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>334.8025514940924</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.6579430619563</v>
+        <v>65.65794306195585</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>114.9474637945415</v>
       </c>
       <c r="G11" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>17.36720043732021</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>84.11809443113162</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23430,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.5849849824587</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.22039162960191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>403.2552991963672</v>
+        <v>206.9047846925421</v>
       </c>
       <c r="H14" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4.488835223714753</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>68.32235580179122</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.5849849824587</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S16" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>96.11279791674454</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>227.2414972539926</v>
       </c>
       <c r="I17" t="n">
-        <v>32.06596601287146</v>
+        <v>32.06596601287144</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>322.8162127079686</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>49.18919810511465</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.5849849824587</v>
       </c>
       <c r="I19" t="n">
         <v>96.49003242675761</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>56.47157300735809</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>63.19417148361782</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>46.43311291220857</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>210.8071342324536</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>94.14130362753052</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.5849849824587</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S22" t="n">
-        <v>87.57771228730894</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>297.2042973807892</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>32.06596601287146</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>173.9922805318864</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>152.7914503325576</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.815711394785154</v>
       </c>
       <c r="I25" t="n">
         <v>96.49003242675761</v>
@@ -24417,7 +24417,7 @@
         <v>173.695436859659</v>
       </c>
       <c r="T25" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>120.2424597349234</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>238.3081655906025</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I26" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.527760234693</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9563089197291</v>
+        <v>96.11279791674487</v>
       </c>
       <c r="H28" t="n">
         <v>142.5849849824587</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>367.8724470298993</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>46.77686432174454</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>403.2552991963672</v>
@@ -24733,22 +24733,22 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3790306575067</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.527760234693</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.9563089197291</v>
+        <v>42.16445133995529</v>
       </c>
       <c r="H31" t="n">
-        <v>142.5849849824587</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.49003242675761</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>403.2552991963672</v>
       </c>
       <c r="H32" t="n">
-        <v>293.6080910769474</v>
+        <v>55.9368325665636</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3790306575067</v>
@@ -24979,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>334.6466181919455</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.11279791674492</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.5849849824587</v>
       </c>
       <c r="I34" t="n">
         <v>96.49003242675761</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S34" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>167.5284366477125</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>293.6080910769474</v>
+        <v>57.93135827440261</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>210.8071342324529</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.3206406996897</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>39.5442609530036</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H38" t="n">
         <v>293.6080910769474</v>
       </c>
       <c r="I38" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9185084023712</v>
+        <v>93.24734782472289</v>
       </c>
       <c r="U38" t="n">
-        <v>178.7411682195822</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.94573535013465</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>136.2524202750698</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>298.2702912218568</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>403.2552991963672</v>
       </c>
       <c r="H41" t="n">
-        <v>293.6080910769474</v>
+        <v>121.5986354577926</v>
       </c>
       <c r="I41" t="n">
         <v>32.06596601287146</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3790306575067</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H43" t="n">
-        <v>142.5849849824587</v>
+        <v>73.74147397947461</v>
       </c>
       <c r="I43" t="n">
         <v>96.49003242675761</v>
@@ -25836,13 +25836,13 @@
         <v>56.4715730073581</v>
       </c>
       <c r="S43" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>168.1061635804178</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.52015537932846</v>
       </c>
       <c r="G44" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>293.6080910769474</v>
       </c>
       <c r="I44" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.9185084023712</v>
       </c>
       <c r="U44" t="n">
-        <v>172.4131753446055</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.5849849824587</v>
+        <v>4.200365581338559</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.50532999220044</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>526198.9318284006</v>
+        <v>526198.9318284005</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526198.9318284007</v>
+        <v>526198.9318284006</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>526198.9318284006</v>
+        <v>526198.9318284005</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>536301.153663888</v>
+        <v>536301.1536638881</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>526198.9318284007</v>
+        <v>526198.9318284006</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>526198.9318284006</v>
+        <v>526198.9318284005</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>526198.9318284006</v>
+        <v>526198.9318284005</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746512</v>
       </c>
       <c r="C2" t="n">
         <v>374629.5039746511</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746513</v>
       </c>
       <c r="E2" t="n">
         <v>237145.6341540348</v>
@@ -26334,16 +26334,16 @@
         <v>237145.6341540348</v>
       </c>
       <c r="I2" t="n">
-        <v>334088.8922977226</v>
+        <v>334088.8922977229</v>
       </c>
       <c r="J2" t="n">
+        <v>241357.7599085865</v>
+      </c>
+      <c r="K2" t="n">
         <v>241357.7599085864</v>
       </c>
-      <c r="K2" t="n">
-        <v>241357.7599085862</v>
-      </c>
       <c r="L2" t="n">
-        <v>241357.7599085862</v>
+        <v>241357.7599085864</v>
       </c>
       <c r="M2" t="n">
         <v>237145.6341540348</v>
@@ -26355,7 +26355,7 @@
         <v>237145.6341540347</v>
       </c>
       <c r="P2" t="n">
-        <v>237145.6341540348</v>
+        <v>237145.6341540347</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284008.0898832023</v>
+        <v>284008.0898832022</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>232373.271303389</v>
       </c>
       <c r="D4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
         <v>42061.34708298717</v>
       </c>
       <c r="F4" t="n">
-        <v>42061.34708298719</v>
+        <v>42061.34708298717</v>
       </c>
       <c r="G4" t="n">
         <v>42061.34708298717</v>
@@ -26438,16 +26438,16 @@
         <v>42061.34708298717</v>
       </c>
       <c r="I4" t="n">
-        <v>76723.41176308313</v>
+        <v>76723.41176308315</v>
       </c>
       <c r="J4" t="n">
-        <v>43567.39276517958</v>
+        <v>43567.3927651796</v>
       </c>
       <c r="K4" t="n">
-        <v>43567.39276517957</v>
+        <v>43567.3927651796</v>
       </c>
       <c r="L4" t="n">
-        <v>43567.39276517958</v>
+        <v>43567.39276517959</v>
       </c>
       <c r="M4" t="n">
         <v>42061.34708298717</v>
@@ -26459,7 +26459,7 @@
         <v>42061.34708298717</v>
       </c>
       <c r="P4" t="n">
-        <v>42061.34708298717</v>
+        <v>42061.34708298716</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>40697.573383831</v>
       </c>
       <c r="F5" t="n">
-        <v>40697.573383831</v>
+        <v>40697.57338383101</v>
       </c>
       <c r="G5" t="n">
-        <v>40697.57338383101</v>
+        <v>40697.57338383102</v>
       </c>
       <c r="H5" t="n">
         <v>40697.573383831</v>
       </c>
       <c r="I5" t="n">
-        <v>73880.83086903923</v>
+        <v>73880.83086903924</v>
       </c>
       <c r="J5" t="n">
-        <v>42139.36579054168</v>
+        <v>42139.3657905417</v>
       </c>
       <c r="K5" t="n">
-        <v>42139.36579054168</v>
+        <v>42139.3657905417</v>
       </c>
       <c r="L5" t="n">
-        <v>42139.36579054168</v>
+        <v>42139.3657905417</v>
       </c>
       <c r="M5" t="n">
         <v>40697.57338383101</v>
       </c>
       <c r="N5" t="n">
-        <v>40697.57338383101</v>
+        <v>40697.573383831</v>
       </c>
       <c r="O5" t="n">
-        <v>40697.57338383101</v>
+        <v>40697.573383831</v>
       </c>
       <c r="P5" t="n">
-        <v>40697.57338383101</v>
+        <v>40697.573383831</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98068.34230034961</v>
+        <v>-98068.3423003495</v>
       </c>
       <c r="C6" t="n">
         <v>76887.16759276451</v>
       </c>
       <c r="D6" t="n">
-        <v>76887.16759276445</v>
+        <v>76887.16759276466</v>
       </c>
       <c r="E6" t="n">
-        <v>-129621.3761959857</v>
+        <v>-130219.1321517274</v>
       </c>
       <c r="F6" t="n">
-        <v>154386.7136872166</v>
+        <v>153788.9577314748</v>
       </c>
       <c r="G6" t="n">
-        <v>154386.7136872167</v>
+        <v>153788.9577314748</v>
       </c>
       <c r="H6" t="n">
-        <v>154386.7136872166</v>
+        <v>153788.9577314748</v>
       </c>
       <c r="I6" t="n">
-        <v>38351.01457145455</v>
+        <v>38174.75104242469</v>
       </c>
       <c r="J6" t="n">
-        <v>155651.0013528651</v>
+        <v>155071.5589873606</v>
       </c>
       <c r="K6" t="n">
-        <v>155651.001352865</v>
+        <v>155071.5589873605</v>
       </c>
       <c r="L6" t="n">
-        <v>155651.001352865</v>
+        <v>155071.5589873605</v>
       </c>
       <c r="M6" t="n">
-        <v>154386.7136872167</v>
+        <v>153788.9577314748</v>
       </c>
       <c r="N6" t="n">
-        <v>154386.7136872166</v>
+        <v>153788.9577314748</v>
       </c>
       <c r="O6" t="n">
-        <v>154386.7136872165</v>
+        <v>153788.9577314747</v>
       </c>
       <c r="P6" t="n">
-        <v>154386.7136872166</v>
+        <v>153788.9577314747</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>344.6933898450812</v>
       </c>
       <c r="F3" t="n">
-        <v>344.693389845081</v>
+        <v>344.6933898450812</v>
       </c>
       <c r="G3" t="n">
-        <v>344.6933898450812</v>
+        <v>344.6933898450813</v>
       </c>
       <c r="H3" t="n">
         <v>344.6933898450812</v>
@@ -26804,7 +26804,7 @@
         <v>545.7772612698724</v>
       </c>
       <c r="G4" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698725</v>
       </c>
       <c r="H4" t="n">
         <v>545.7772612698723</v>
@@ -26813,25 +26813,25 @@
         <v>1091.554522539745</v>
       </c>
       <c r="J4" t="n">
-        <v>569.490952169719</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="K4" t="n">
-        <v>569.490952169719</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L4" t="n">
-        <v>569.490952169719</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="M4" t="n">
         <v>545.7772612698724</v>
       </c>
       <c r="N4" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="O4" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="P4" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.71369089984685</v>
+        <v>23.71369089984682</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.71369089984685</v>
+        <v>23.71369089984682</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>151.6447410059027</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>252.6078065630679</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>33.48866663021485</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>64.91956777062336</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>379.8237284715647</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.19522188379977</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>136.5105265353627</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>41.47802712615496</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.1234863376401</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>362.0325268576435</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27918,7 +27918,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28022,16 +28022,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.385702069728968</v>
+        <v>1.385702069728969</v>
       </c>
       <c r="H14" t="n">
         <v>14.1913213216118</v>
       </c>
       <c r="I14" t="n">
-        <v>53.42227904322608</v>
+        <v>53.42227904322611</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6097310406591</v>
+        <v>117.6097310406592</v>
       </c>
       <c r="K14" t="n">
-        <v>176.2664996522863</v>
+        <v>176.2664996522864</v>
       </c>
       <c r="L14" t="n">
-        <v>218.6741793687543</v>
+        <v>218.6741793687544</v>
       </c>
       <c r="M14" t="n">
-        <v>243.3171585512968</v>
+        <v>243.3171585512969</v>
       </c>
       <c r="N14" t="n">
-        <v>247.2542845569143</v>
+        <v>247.2542845569144</v>
       </c>
       <c r="O14" t="n">
-        <v>233.4752096010468</v>
+        <v>233.4752096010469</v>
       </c>
       <c r="P14" t="n">
-        <v>199.2656897546129</v>
+        <v>199.265689754613</v>
       </c>
       <c r="Q14" t="n">
         <v>149.6402343824442</v>
       </c>
       <c r="R14" t="n">
-        <v>87.04460763761236</v>
+        <v>87.0446076376124</v>
       </c>
       <c r="S14" t="n">
-        <v>31.57668591394889</v>
+        <v>31.5766859139489</v>
       </c>
       <c r="T14" t="n">
-        <v>6.065910810238559</v>
+        <v>6.065910810238563</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1108561655783174</v>
+        <v>0.1108561655783175</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7414159706101743</v>
+        <v>0.7414159706101746</v>
       </c>
       <c r="H15" t="n">
-        <v>7.160517400366684</v>
+        <v>7.160517400366688</v>
       </c>
       <c r="I15" t="n">
-        <v>25.526821795131</v>
+        <v>25.52682179513102</v>
       </c>
       <c r="J15" t="n">
-        <v>70.04755010049898</v>
+        <v>70.04755010049901</v>
       </c>
       <c r="K15" t="n">
-        <v>119.7224201313806</v>
+        <v>119.7224201313807</v>
       </c>
       <c r="L15" t="n">
-        <v>160.9815685309503</v>
+        <v>160.9815685309504</v>
       </c>
       <c r="M15" t="n">
-        <v>187.8578974655691</v>
+        <v>187.8578974655692</v>
       </c>
       <c r="N15" t="n">
-        <v>192.8299370228628</v>
+        <v>192.8299370228629</v>
       </c>
       <c r="O15" t="n">
         <v>176.401719989869</v>
       </c>
       <c r="P15" t="n">
-        <v>141.5779321422183</v>
+        <v>141.5779321422184</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.64109828350226</v>
+        <v>94.6410982835023</v>
       </c>
       <c r="R15" t="n">
-        <v>46.03282666648084</v>
+        <v>46.03282666648086</v>
       </c>
       <c r="S15" t="n">
-        <v>13.77147647164073</v>
+        <v>13.77147647164074</v>
       </c>
       <c r="T15" t="n">
-        <v>2.988426653468201</v>
+        <v>2.988426653468203</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04877736648751149</v>
+        <v>0.04877736648751151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6215782439829329</v>
+        <v>0.6215782439829333</v>
       </c>
       <c r="H16" t="n">
-        <v>5.526395660139171</v>
+        <v>5.526395660139173</v>
       </c>
       <c r="I16" t="n">
-        <v>18.69255300995948</v>
+        <v>18.69255300995949</v>
       </c>
       <c r="J16" t="n">
-        <v>43.94558184959335</v>
+        <v>43.94558184959337</v>
       </c>
       <c r="K16" t="n">
-        <v>72.21609052819892</v>
+        <v>72.21609052819895</v>
       </c>
       <c r="L16" t="n">
-        <v>92.41173274633533</v>
+        <v>92.41173274633537</v>
       </c>
       <c r="M16" t="n">
-        <v>97.43521509997919</v>
+        <v>97.43521509997923</v>
       </c>
       <c r="N16" t="n">
-        <v>95.11842346331561</v>
+        <v>95.11842346331565</v>
       </c>
       <c r="O16" t="n">
-        <v>87.85725943133313</v>
+        <v>87.85725943133318</v>
       </c>
       <c r="P16" t="n">
-        <v>75.17706325408123</v>
+        <v>75.17706325408128</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.04870186660723</v>
+        <v>52.04870186660726</v>
       </c>
       <c r="R16" t="n">
-        <v>27.94841813399623</v>
+        <v>27.94841813399625</v>
       </c>
       <c r="S16" t="n">
         <v>10.83241357922984</v>
       </c>
       <c r="T16" t="n">
-        <v>2.655834315199804</v>
+        <v>2.655834315199805</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03390426785361456</v>
+        <v>0.03390426785361458</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.385702069728969</v>
       </c>
       <c r="H17" t="n">
-        <v>14.1913213216118</v>
+        <v>14.19132132161181</v>
       </c>
       <c r="I17" t="n">
-        <v>53.42227904322611</v>
+        <v>53.42227904322613</v>
       </c>
       <c r="J17" t="n">
         <v>117.6097310406592</v>
       </c>
       <c r="K17" t="n">
-        <v>176.2664996522864</v>
+        <v>176.2664996522865</v>
       </c>
       <c r="L17" t="n">
-        <v>218.6741793687544</v>
+        <v>218.6741793687545</v>
       </c>
       <c r="M17" t="n">
-        <v>243.3171585512969</v>
+        <v>243.317158551297</v>
       </c>
       <c r="N17" t="n">
-        <v>247.2542845569144</v>
+        <v>247.2542845569145</v>
       </c>
       <c r="O17" t="n">
-        <v>233.4752096010469</v>
+        <v>233.475209601047</v>
       </c>
       <c r="P17" t="n">
         <v>199.265689754613</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.6402343824442</v>
+        <v>149.6402343824443</v>
       </c>
       <c r="R17" t="n">
-        <v>87.0446076376124</v>
+        <v>87.04460763761243</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5766859139489</v>
+        <v>31.57668591394891</v>
       </c>
       <c r="T17" t="n">
-        <v>6.065910810238563</v>
+        <v>6.065910810238565</v>
       </c>
       <c r="U17" t="n">
         <v>0.1108561655783175</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7414159706101746</v>
+        <v>0.7414159706101749</v>
       </c>
       <c r="H18" t="n">
-        <v>7.160517400366688</v>
+        <v>7.16051740036669</v>
       </c>
       <c r="I18" t="n">
         <v>25.52682179513102</v>
       </c>
       <c r="J18" t="n">
-        <v>70.04755010049901</v>
+        <v>70.04755010049904</v>
       </c>
       <c r="K18" t="n">
         <v>119.7224201313807</v>
       </c>
       <c r="L18" t="n">
-        <v>160.9815685309504</v>
+        <v>160.9815685309505</v>
       </c>
       <c r="M18" t="n">
-        <v>187.8578974655692</v>
+        <v>187.8578974655693</v>
       </c>
       <c r="N18" t="n">
-        <v>192.8299370228629</v>
+        <v>192.829937022863</v>
       </c>
       <c r="O18" t="n">
-        <v>176.401719989869</v>
+        <v>176.4017199898691</v>
       </c>
       <c r="P18" t="n">
         <v>141.5779321422184</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.6410982835023</v>
+        <v>94.64109828350233</v>
       </c>
       <c r="R18" t="n">
-        <v>46.03282666648086</v>
+        <v>46.03282666648088</v>
       </c>
       <c r="S18" t="n">
         <v>13.77147647164074</v>
       </c>
       <c r="T18" t="n">
-        <v>2.988426653468203</v>
+        <v>2.988426653468204</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04877736648751151</v>
+        <v>0.04877736648751153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6215782439829333</v>
+        <v>0.6215782439829334</v>
       </c>
       <c r="H19" t="n">
-        <v>5.526395660139173</v>
+        <v>5.526395660139176</v>
       </c>
       <c r="I19" t="n">
         <v>18.69255300995949</v>
       </c>
       <c r="J19" t="n">
-        <v>43.94558184959337</v>
+        <v>43.94558184959339</v>
       </c>
       <c r="K19" t="n">
-        <v>72.21609052819895</v>
+        <v>72.21609052819898</v>
       </c>
       <c r="L19" t="n">
-        <v>92.41173274633537</v>
+        <v>92.4117327463354</v>
       </c>
       <c r="M19" t="n">
-        <v>97.43521509997923</v>
+        <v>97.43521509997927</v>
       </c>
       <c r="N19" t="n">
-        <v>95.11842346331565</v>
+        <v>95.11842346331569</v>
       </c>
       <c r="O19" t="n">
-        <v>87.85725943133318</v>
+        <v>87.8572594313332</v>
       </c>
       <c r="P19" t="n">
-        <v>75.17706325408128</v>
+        <v>75.1770632540813</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.04870186660726</v>
+        <v>52.04870186660727</v>
       </c>
       <c r="R19" t="n">
         <v>27.94841813399625</v>
       </c>
       <c r="S19" t="n">
-        <v>10.83241357922984</v>
+        <v>10.83241357922985</v>
       </c>
       <c r="T19" t="n">
-        <v>2.655834315199805</v>
+        <v>2.655834315199806</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03390426785361458</v>
+        <v>0.03390426785361459</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L3" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>203.2507825193993</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>306.2096305948391</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>445.036853443033</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35412,10 +35412,10 @@
         <v>374.3627325232392</v>
       </c>
       <c r="K11" t="n">
-        <v>511.1790282244701</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L11" t="n">
-        <v>123.1887813059096</v>
+        <v>216.6014646754581</v>
       </c>
       <c r="M11" t="n">
         <v>150.0269340942515</v>
@@ -35433,7 +35433,7 @@
         <v>474.0452917514261</v>
       </c>
       <c r="R11" t="n">
-        <v>128.0109164149506</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J12" t="n">
         <v>264.8080122849771</v>
@@ -35494,7 +35494,7 @@
         <v>545.7772612698723</v>
       </c>
       <c r="L12" t="n">
-        <v>104.8670447201014</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="M12" t="n">
         <v>130.2936137271518</v>
@@ -35506,10 +35506,10 @@
         <v>118.650240989869</v>
       </c>
       <c r="P12" t="n">
-        <v>193.0473022686549</v>
+        <v>87.31829713941463</v>
       </c>
       <c r="Q12" t="n">
-        <v>448.019345439041</v>
+        <v>107.8524176893417</v>
       </c>
       <c r="R12" t="n">
         <v>75.89092703277367</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>331.6148812820089</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K14" t="n">
-        <v>545.7772612698724</v>
+        <v>511.1790282244705</v>
       </c>
       <c r="L14" t="n">
-        <v>545.7772612698724</v>
+        <v>123.1887813059096</v>
       </c>
       <c r="M14" t="n">
-        <v>150.0269340942514</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N14" t="n">
-        <v>154.3419938002949</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O14" t="n">
-        <v>140.2854339752637</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P14" t="n">
-        <v>105.6163264737287</v>
+        <v>105.6163264737288</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.60642998329214</v>
+        <v>474.0452917514261</v>
       </c>
       <c r="R14" t="n">
-        <v>128.0109164149505</v>
+        <v>128.0109164149506</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.67831130049897</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K15" t="n">
-        <v>63.89663734676525</v>
+        <v>175.9911476490288</v>
       </c>
       <c r="L15" t="n">
-        <v>104.8670447201013</v>
+        <v>104.8670447201014</v>
       </c>
       <c r="M15" t="n">
-        <v>545.7772612698724</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N15" t="n">
-        <v>545.7772612698724</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O15" t="n">
         <v>545.7772612698724</v>
       </c>
       <c r="P15" t="n">
-        <v>158.2680344059081</v>
+        <v>545.7772612698724</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.94847977866354</v>
+        <v>37.94847977866358</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.17037922859388</v>
+        <v>58.1703792285939</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3295528738938</v>
+        <v>228.3295528738939</v>
       </c>
       <c r="L16" t="n">
-        <v>354.934056261548</v>
+        <v>354.9340562615481</v>
       </c>
       <c r="M16" t="n">
-        <v>389.621130696437</v>
+        <v>389.6211306964371</v>
       </c>
       <c r="N16" t="n">
         <v>378.7939612352856</v>
@@ -35822,7 +35822,7 @@
         <v>350.0396941045394</v>
       </c>
       <c r="P16" t="n">
-        <v>282.9300332031846</v>
+        <v>282.9300332031847</v>
       </c>
       <c r="Q16" t="n">
         <v>118.2386309600525</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>374.3627325232392</v>
+        <v>374.3627325232393</v>
       </c>
       <c r="K17" t="n">
-        <v>87.1301099790693</v>
+        <v>87.13010997906936</v>
       </c>
       <c r="L17" t="n">
         <v>123.1887813059096</v>
@@ -35895,10 +35895,10 @@
         <v>150.0269340942515</v>
       </c>
       <c r="N17" t="n">
-        <v>154.341993800295</v>
+        <v>154.3419938002951</v>
       </c>
       <c r="O17" t="n">
-        <v>140.2854339752638</v>
+        <v>140.2854339752639</v>
       </c>
       <c r="P17" t="n">
         <v>529.6652447191298</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4.985716329168799</v>
       </c>
       <c r="J18" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K18" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698725</v>
       </c>
       <c r="L18" t="n">
-        <v>545.7772612698724</v>
+        <v>205.6103335201724</v>
       </c>
       <c r="M18" t="n">
-        <v>130.2936137271518</v>
+        <v>130.2936137271519</v>
       </c>
       <c r="N18" t="n">
-        <v>139.6365436291129</v>
+        <v>139.636543629113</v>
       </c>
       <c r="O18" t="n">
-        <v>515.5605232469675</v>
+        <v>118.6502409898691</v>
       </c>
       <c r="P18" t="n">
-        <v>87.31829713941463</v>
+        <v>87.31829713941465</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.94847977866358</v>
+        <v>448.0193454390411</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.8909270327737</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.1703792285939</v>
+        <v>58.17037922859392</v>
       </c>
       <c r="K19" t="n">
         <v>228.3295528738939</v>
@@ -36053,7 +36053,7 @@
         <v>389.6211306964371</v>
       </c>
       <c r="N19" t="n">
-        <v>378.7939612352856</v>
+        <v>378.7939612352857</v>
       </c>
       <c r="O19" t="n">
         <v>350.0396941045394</v>
@@ -36062,7 +36062,7 @@
         <v>282.9300332031847</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.2386309600525</v>
+        <v>118.2386309600526</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>374.3627325232392</v>
       </c>
       <c r="K20" t="n">
-        <v>87.1301099790693</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L20" t="n">
         <v>123.1887813059096</v>
@@ -36135,13 +36135,13 @@
         <v>154.341993800295</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7772612698723</v>
+        <v>520.1260626979954</v>
       </c>
       <c r="P20" t="n">
-        <v>124.1734174245209</v>
+        <v>105.6163264737288</v>
       </c>
       <c r="Q20" t="n">
-        <v>474.0452917514261</v>
+        <v>59.6064299832922</v>
       </c>
       <c r="R20" t="n">
         <v>128.0109164149506</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J21" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K21" t="n">
-        <v>545.7772612698723</v>
+        <v>63.89663734676531</v>
       </c>
       <c r="L21" t="n">
         <v>104.8670447201014</v>
@@ -36214,16 +36214,16 @@
         <v>139.6365436291129</v>
       </c>
       <c r="O21" t="n">
+        <v>242.8151895825897</v>
+      </c>
+      <c r="P21" t="n">
         <v>545.7772612698723</v>
       </c>
-      <c r="P21" t="n">
-        <v>498.011775666281</v>
-      </c>
       <c r="Q21" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>374.3627325232392</v>
       </c>
       <c r="K23" t="n">
-        <v>540.2490239234573</v>
+        <v>719.8619553179828</v>
       </c>
       <c r="L23" t="n">
-        <v>938.4634721083887</v>
+        <v>704.0902606003191</v>
       </c>
       <c r="M23" t="n">
-        <v>1027.477351472261</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.043190252488</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O23" t="n">
-        <v>140.2854339752638</v>
+        <v>883.6073878001428</v>
       </c>
       <c r="P23" t="n">
-        <v>105.6163264737288</v>
+        <v>733.767404824463</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.6064299832922</v>
+        <v>474.0452917514261</v>
       </c>
       <c r="R23" t="n">
         <v>128.0109164149506</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J24" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K24" t="n">
-        <v>63.89663734676531</v>
+        <v>580.1327799953187</v>
       </c>
       <c r="L24" t="n">
-        <v>104.8670447201014</v>
+        <v>657.2166074878777</v>
       </c>
       <c r="M24" t="n">
         <v>130.2936137271518</v>
@@ -36451,10 +36451,10 @@
         <v>139.6365436291129</v>
       </c>
       <c r="O24" t="n">
-        <v>887.4694882180452</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P24" t="n">
-        <v>638.2001726412151</v>
+        <v>87.31829713941463</v>
       </c>
       <c r="Q24" t="n">
         <v>37.94847977866358</v>
@@ -36597,16 +36597,16 @@
         <v>374.3627325232392</v>
       </c>
       <c r="K26" t="n">
-        <v>87.1301099790693</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L26" t="n">
-        <v>123.1887813059096</v>
+        <v>158.7734920348019</v>
       </c>
       <c r="M26" t="n">
-        <v>252.8235286443688</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N26" t="n">
-        <v>569.490952169719</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O26" t="n">
         <v>140.2854339752638</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J27" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K27" t="n">
-        <v>63.89663734676531</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L27" t="n">
-        <v>534.530117827661</v>
+        <v>104.8670447201014</v>
       </c>
       <c r="M27" t="n">
-        <v>569.490952169719</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N27" t="n">
         <v>139.6365436291129</v>
       </c>
       <c r="O27" t="n">
-        <v>569.490952169719</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P27" t="n">
-        <v>87.31829713941463</v>
+        <v>164.3478950396395</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K29" t="n">
-        <v>87.1301099790693</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L29" t="n">
-        <v>569.490952169719</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="M29" t="n">
-        <v>569.490952169719</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N29" t="n">
-        <v>569.490952169719</v>
+        <v>286.0743118484622</v>
       </c>
       <c r="O29" t="n">
-        <v>249.8422105850766</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P29" t="n">
         <v>105.6163264737288</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J30" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K30" t="n">
-        <v>63.89663734676531</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L30" t="n">
         <v>104.8670447201014</v>
       </c>
       <c r="M30" t="n">
-        <v>569.2996167366724</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N30" t="n">
-        <v>569.490952169719</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O30" t="n">
-        <v>569.490952169719</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P30" t="n">
-        <v>87.31829713941463</v>
+        <v>164.3478950396395</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K32" t="n">
-        <v>87.1301099790693</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L32" t="n">
-        <v>264.6088670113982</v>
+        <v>272.0177520234307</v>
       </c>
       <c r="M32" t="n">
-        <v>569.490952169719</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N32" t="n">
-        <v>569.490952169719</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O32" t="n">
-        <v>140.2854339752638</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="P32" t="n">
         <v>105.6163264737288</v>
       </c>
       <c r="Q32" t="n">
-        <v>474.0452917514261</v>
+        <v>59.6064299832922</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J33" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K33" t="n">
-        <v>63.89663734676531</v>
+        <v>569.4909521697192</v>
       </c>
       <c r="L33" t="n">
-        <v>104.8670447201014</v>
+        <v>257.7875696531</v>
       </c>
       <c r="M33" t="n">
-        <v>159.2287510762952</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N33" t="n">
-        <v>569.490952169719</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O33" t="n">
-        <v>569.490952169719</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P33" t="n">
         <v>87.31829713941463</v>
@@ -37311,22 +37311,22 @@
         <v>87.1301099790693</v>
       </c>
       <c r="L35" t="n">
-        <v>174.4909666742463</v>
+        <v>123.1887813059096</v>
       </c>
       <c r="M35" t="n">
-        <v>545.7772612698724</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N35" t="n">
-        <v>545.7772612698724</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O35" t="n">
         <v>140.2854339752638</v>
       </c>
       <c r="P35" t="n">
-        <v>105.6163264737288</v>
+        <v>529.6652447191298</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.6064299832922</v>
+        <v>474.0452917514261</v>
       </c>
       <c r="R35" t="n">
         <v>128.0109164149506</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J36" t="n">
         <v>264.8080122849771</v>
@@ -37390,7 +37390,7 @@
         <v>545.7772612698724</v>
       </c>
       <c r="L36" t="n">
-        <v>104.8670447201014</v>
+        <v>205.6103335201728</v>
       </c>
       <c r="M36" t="n">
         <v>130.2936137271518</v>
@@ -37399,7 +37399,7 @@
         <v>139.6365436291129</v>
       </c>
       <c r="O36" t="n">
-        <v>224.3792461191094</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P36" t="n">
         <v>87.31829713941463</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K38" t="n">
         <v>87.1301099790693</v>
       </c>
       <c r="L38" t="n">
-        <v>545.7772612698724</v>
+        <v>123.1887813059096</v>
       </c>
       <c r="M38" t="n">
-        <v>545.7772612698724</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N38" t="n">
-        <v>545.7772612698724</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O38" t="n">
-        <v>227.0866486104762</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P38" t="n">
-        <v>105.6163264737288</v>
+        <v>529.6652447191293</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.6064299832922</v>
+        <v>474.0452917514261</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.0109164149506</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J39" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K39" t="n">
-        <v>63.89663734676531</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L39" t="n">
-        <v>545.7772612698724</v>
+        <v>104.8670447201014</v>
       </c>
       <c r="M39" t="n">
-        <v>545.7772612698724</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N39" t="n">
-        <v>175.8167819865945</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O39" t="n">
-        <v>545.7772612698724</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P39" t="n">
-        <v>87.31829713941463</v>
+        <v>188.0615859394862</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K41" t="n">
         <v>87.1301099790693</v>
       </c>
       <c r="L41" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="M41" t="n">
-        <v>545.7772612698724</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N41" t="n">
-        <v>218.1396141369512</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O41" t="n">
         <v>140.2854339752638</v>
       </c>
       <c r="P41" t="n">
-        <v>105.6163264737288</v>
+        <v>235.0876811701177</v>
       </c>
       <c r="Q41" t="n">
         <v>474.0452917514261</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J42" t="n">
-        <v>30.79327615384428</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K42" t="n">
-        <v>63.89663734676531</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L42" t="n">
-        <v>104.8670447201014</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="M42" t="n">
-        <v>545.7772612698724</v>
+        <v>200.1975516378298</v>
       </c>
       <c r="N42" t="n">
-        <v>545.7772612698724</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O42" t="n">
         <v>118.650240989869</v>
@@ -37879,7 +37879,7 @@
         <v>87.31829713941463</v>
       </c>
       <c r="Q42" t="n">
-        <v>448.019345439041</v>
+        <v>37.94847977866358</v>
       </c>
       <c r="R42" t="n">
         <v>75.89092703277367</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.28613970735121</v>
+        <v>131.0873543425637</v>
       </c>
       <c r="K44" t="n">
         <v>87.1301099790693</v>
       </c>
       <c r="L44" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="M44" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="N44" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="O44" t="n">
-        <v>227.0866486104762</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P44" t="n">
         <v>105.6163264737288</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J45" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K45" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L45" t="n">
-        <v>104.8670447201014</v>
+        <v>205.6103335201729</v>
       </c>
       <c r="M45" t="n">
         <v>130.2936137271518</v>
@@ -38110,13 +38110,13 @@
         <v>139.6365436291129</v>
       </c>
       <c r="O45" t="n">
-        <v>545.7772612698724</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P45" t="n">
-        <v>422.1208486335071</v>
+        <v>87.31829713941463</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R45" t="n">
         <v>75.89092703277367</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.17037922859426</v>
+        <v>58.17037922859381</v>
       </c>
       <c r="K46" t="n">
         <v>228.3295528738939</v>
